--- a/model_exports/labels/2.0_False_False_8_3.xlsx
+++ b/model_exports/labels/2.0_False_False_8_3.xlsx
@@ -453,20 +453,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>t-509432328561885184</t>
+          <t>t-494301276121731072</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>t-599446630732079104</t>
+          <t>t-571473938481602560</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -479,7 +479,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>t-627039115188383744</t>
+          <t>t-629748063494537216</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -492,11 +492,11 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>t-1027818664391847936</t>
+          <t>t-629757802915848193</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -505,20 +505,20 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>t-1027909740905553920</t>
+          <t>t-521738184288251906</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>t-1032695855143370753</t>
+          <t>t-521768704259162112</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -531,24 +531,24 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>t-1033108055162941440</t>
+          <t>t-551476214402387968</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>t-573511311906115584</t>
+          <t>t-551489050045988864</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -557,24 +557,24 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>t-573530576818434048</t>
+          <t>t-588022316359151617</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>t-575319219870437377</t>
+          <t>t-588515231380348928</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -583,7 +583,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>t-575466667171426304</t>
+          <t>t-588525414441553920</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -596,14 +596,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>t-622509518346268672</t>
+          <t>t-588659923807907840</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -622,7 +622,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>t-641712529677398016</t>
+          <t>t-648290405872627712</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -635,7 +635,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>t-701855843747241986</t>
+          <t>t-681917420068564992</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -648,33 +648,33 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>t-707911328145477632</t>
+          <t>t-682618491283857408</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>t-707931200627875840</t>
+          <t>t-719525216439910400</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>t-708036809603698689</t>
+          <t>t-719704738913083392</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -687,7 +687,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>t-708038329514790912</t>
+          <t>t-784233737512890376</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -700,11 +700,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>t-708041345638776832</t>
+          <t>t-784234780590080001</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>t-708249950530961408</t>
+          <t>t-854007994534813696</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -726,7 +726,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>t-708273072424554497</t>
+          <t>t-875748360933847041</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -739,11 +739,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>t-708363296160747520</t>
+          <t>t-893450286144131072</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -752,46 +752,46 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>t-708384601509601280</t>
+          <t>t-922305869466890240</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>t-708389352393539585</t>
+          <t>t-956711426009202688</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>t-708444180087971840</t>
+          <t>t-959172176346836993</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>t-709190294621835264</t>
+          <t>t-965645492616036357</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -804,11 +804,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>t-709228058117480449</t>
+          <t>t-965648872474398721</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>t-709405662791372802</t>
+          <t>t-965652051077357569</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -830,7 +830,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>t-709892861110657024</t>
+          <t>t-966072585061625856</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -843,11 +843,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>t-710265095104946176</t>
+          <t>t-966155045300588545</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -856,59 +856,59 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>t-767329938500308992</t>
+          <t>t-966356829596016640</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>t-771105696226025472</t>
+          <t>t-966362179913093121</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>t-854007994534813696</t>
+          <t>t-966449125788090370</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>t-875748360933847041</t>
+          <t>t-966450069024239616</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>t-876890893143298050</t>
+          <t>t-966465261950906369</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -921,11 +921,11 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>t-876899745704415232</t>
+          <t>t-966698278606856197</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -934,11 +934,11 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>t-876909191105048577</t>
+          <t>t-966704060270370817</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -947,24 +947,24 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>t-876910840670302209</t>
+          <t>t-966706278016999424</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>t-876983597760172032</t>
+          <t>t-966769885220163586</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -973,11 +973,11 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>t-877064271393370112</t>
+          <t>t-970872683402539011</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -986,20 +986,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>t-877647799629733893</t>
+          <t>t-1018804138195513344</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>t-877649383340298240</t>
+          <t>t-1018807229267496962</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1012,33 +1012,33 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>t-878107705168334848</t>
+          <t>t-1018819644377923585</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>t-878263651773407233</t>
+          <t>t-1018962868379750402</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>t-878265674975461376</t>
+          <t>t-1019003195874512897</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1051,7 +1051,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>t-878542338414362624</t>
+          <t>t-1019014466770333697</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1064,7 +1064,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>t-880275227367821312</t>
+          <t>t-1019698120098222080</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1077,20 +1077,20 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>t-887086137789091841</t>
+          <t>t-1036653090664075265</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>t-945777508007464961</t>
+          <t>t-1036716876020285440</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1103,98 +1103,98 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>t-977248381662892039</t>
+          <t>t-1037295289206546433</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>t-977294782048428032</t>
+          <t>t-1037346167451992064</t>
         </is>
       </c>
       <c r="B53" t="n">
         <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>t-985145363618246656</t>
+          <t>t-1037351232451608577</t>
         </is>
       </c>
       <c r="B54" t="n">
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>t-985306564868354049</t>
+          <t>t-1037351271697657857</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>t-1045002319061012482</t>
+          <t>t-1037367364231344128</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>t-1045014122092482560</t>
+          <t>t-1037535909296709632</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>t-1045027654121000962</t>
+          <t>t-1045002319061012482</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>t-1045031106968465408</t>
+          <t>t-1045014122092482560</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1207,50 +1207,50 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>t-1045065376575475712</t>
+          <t>t-1045027654121000962</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>t-1052350536111013888</t>
+          <t>t-1045031106968465408</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>t-1060177367417655297</t>
+          <t>t-1045065376575475712</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>t-1060184735106781189</t>
+          <t>t-1054831014869123073</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -1259,46 +1259,46 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>t-1060185768549908480</t>
+          <t>t-1054887299698380800</t>
         </is>
       </c>
       <c r="B64" t="n">
         <v>1</v>
       </c>
       <c r="C64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>t-1060186673835900928</t>
+          <t>t-1055927061867585536</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>t-1060281450493136896</t>
+          <t>t-1060177367417655297</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>t-1060341719915470848</t>
+          <t>t-1060184735106781189</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -1311,11 +1311,11 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>t-1060518882832658433</t>
+          <t>t-1060185768549908480</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -1324,20 +1324,20 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>t-1060908480901640192</t>
+          <t>t-1060186673835900928</t>
         </is>
       </c>
       <c r="B69" t="n">
         <v>1</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>t-812540411746975744</t>
+          <t>t-1060281450493136896</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1350,7 +1350,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>t-819315426853273600</t>
+          <t>t-1060341719915470848</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1363,7 +1363,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>t-925753092301295616</t>
+          <t>t-1060518882832658433</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1376,7 +1376,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>t-1024774127687749633</t>
+          <t>t-1060908480901640192</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1389,7 +1389,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>t-685243474623336449</t>
+          <t>t-548492147645640704</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1402,20 +1402,20 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>t-687924478219685888</t>
+          <t>t-875896081233567744</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>t-687934498701455360</t>
+          <t>t-922536592429993985</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1428,11 +1428,11 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>t-739238212518957060</t>
+          <t>t-1028077400779841537</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
@@ -1441,33 +1441,33 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>t-739379635675271168</t>
+          <t>t-538622557084082176</t>
         </is>
       </c>
       <c r="B78" t="n">
         <v>1</v>
       </c>
       <c r="C78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>t-746432967740882945</t>
+          <t>t-594694315915350017</t>
         </is>
       </c>
       <c r="B79" t="n">
         <v>0</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>t-835997827369156608</t>
+          <t>t-608562753129840640</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1480,11 +1480,11 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>t-903960318652669952</t>
+          <t>t-615459121891012608</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -1493,20 +1493,20 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>t-903973451970392064</t>
+          <t>t-619895281761423360</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>t-987586031829569536</t>
+          <t>t-765818303898058752</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1519,37 +1519,37 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>t-987647086475673600</t>
+          <t>t-798458981752573952</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>t-987928780621668352</t>
+          <t>t-798478057195507713</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>t-1010157701769281538</t>
+          <t>t-798508699044220928</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
         <v>1</v>
@@ -1558,37 +1558,37 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>t-538858836992331776</t>
+          <t>t-798530247192965122</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>t-745595825670131714</t>
+          <t>t-799607144802750464</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>t-745600923448258560</t>
+          <t>t-903960318652669952</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
@@ -1597,11 +1597,11 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>t-753345702428827652</t>
+          <t>t-903973451970392064</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C90" t="n">
         <v>1</v>
@@ -1610,7 +1610,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>t-753345808620105728</t>
+          <t>t-992796128654524417</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -1623,20 +1623,20 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>t-753350269518409728</t>
+          <t>t-858084101320056832</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>t-764602141449170944</t>
+          <t>t-858490544007327747</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -1649,7 +1649,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>t-885277243991314432</t>
+          <t>t-979396065278427139</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -1662,7 +1662,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>t-885292685086646272</t>
+          <t>t-981152225723604993</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -1675,7 +1675,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>t-903265153931608064</t>
+          <t>t-507504670592356352</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -1688,7 +1688,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>t-773307883878363136</t>
+          <t>t-507919904779948032</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -1701,7 +1701,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>t-1007699633349582849</t>
+          <t>t-717023541078728704</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -1714,63 +1714,63 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>t-1007719195323269122</t>
+          <t>t-773307883878363136</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>t-1008223489369796609</t>
+          <t>t-903082857492566018</t>
         </is>
       </c>
       <c r="B100" t="n">
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>t-1008226683005087744</t>
+          <t>t-917079758076370946</t>
         </is>
       </c>
       <c r="B101" t="n">
         <v>0</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>t-1008430016873394176</t>
+          <t>t-999634090503569409</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>t-1008458331160182784</t>
+          <t>t-1016140956322713601</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
@@ -1779,11 +1779,11 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>t-1008771230261039104</t>
+          <t>t-767772450964725760</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C104" t="n">
         <v>1</v>
@@ -1792,11 +1792,11 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>t-1009061662731767808</t>
+          <t>t-513123960192794624</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C105" t="n">
         <v>0</v>
@@ -1805,7 +1805,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>t-1009095412505022464</t>
+          <t>t-580481361141743616</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -1818,20 +1818,20 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>t-1009284771766140929</t>
+          <t>t-623339394989166593</t>
         </is>
       </c>
       <c r="B107" t="n">
         <v>0</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>t-1009553393331986433</t>
+          <t>t-670312803173986304</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -1844,24 +1844,24 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>t-1050075728891535361</t>
+          <t>t-697497279213625344</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>t-1050076017593745408</t>
+          <t>t-697558252012355585</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C110" t="n">
         <v>0</v>
@@ -1870,7 +1870,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>t-1050077658590134272</t>
+          <t>t-897129980584439812</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -1883,20 +1883,20 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>t-1050092626786037760</t>
+          <t>t-638954151821594624</t>
         </is>
       </c>
       <c r="B112" t="n">
         <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>t-1050210928594173952</t>
+          <t>t-639060084857929728</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -1909,7 +1909,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>t-1050446607055896576</t>
+          <t>t-675047436134543360</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -1922,7 +1922,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>t-1051200746312663040</t>
+          <t>t-687545498014760960</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -1935,7 +1935,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>t-618395942002102272</t>
+          <t>t-783792055160082432</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -1948,33 +1948,33 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>t-1018620410819219456</t>
+          <t>t-871833381906067459</t>
         </is>
       </c>
       <c r="B117" t="n">
         <v>0</v>
       </c>
       <c r="C117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>t-774727266823581696</t>
+          <t>t-919827029243187200</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>t-781902339066191873</t>
+          <t>t-919919408797151233</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -1987,7 +1987,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>t-533211918698553344</t>
+          <t>t-919933275422027776</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -2000,7 +2000,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>t-533272996883210240</t>
+          <t>t-919961378433224704</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -2013,46 +2013,46 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>t-533345881412878336</t>
+          <t>t-920296060211400704</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>t-897129980584439812</t>
+          <t>t-986841970411823104</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>t-921072406919352320</t>
+          <t>t-923100909521068032</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>t-921102349552275456</t>
+          <t>t-1020278662699134976</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -2065,7 +2065,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>t-921122924505026560</t>
+          <t>t-552038248218767360</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -2078,59 +2078,59 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>t-921266455856939008</t>
+          <t>t-552266751304798209</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>t-921341244332113926</t>
+          <t>t-583930739512713216</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>t-921699631360176128</t>
+          <t>t-547131830642569216</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>t-950852460532428800</t>
+          <t>t-760723550810628097</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>t-973959709605662721</t>
+          <t>t-952138958368051200</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -2143,24 +2143,24 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>t-973962375287246848</t>
+          <t>t-952754172880863232</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>t-973995114065465345</t>
+          <t>t-560903834407817217</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C133" t="n">
         <v>0</v>
@@ -2169,11 +2169,11 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>t-974310620169474048</t>
+          <t>t-568623295811194880</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -2182,7 +2182,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>t-536361968840769536</t>
+          <t>t-692803310668087296</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -2195,7 +2195,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>t-915529742002135041</t>
+          <t>t-604735735154012160</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -2208,7 +2208,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>t-915535227245776896</t>
+          <t>t-821731492581744642</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -2221,7 +2221,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>t-948484381987037185</t>
+          <t>t-821745652803764226</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -2234,7 +2234,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>t-948486603227451392</t>
+          <t>t-578289267857891328</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -2247,20 +2247,20 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>t-948505461745168384</t>
+          <t>t-907490044335636480</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>t-948538940134477824</t>
+          <t>t-1031211148908081152</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -2273,7 +2273,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>t-948573984802689025</t>
+          <t>t-708373253648207873</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -2286,37 +2286,37 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>t-986841970411823104</t>
+          <t>t-745905684248694789</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>t-543357722591514624</t>
+          <t>t-745992462448140288</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>t-665687399033397248</t>
+          <t>t-746083614291562497</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C145" t="n">
         <v>0</v>
@@ -2325,7 +2325,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>t-682141165802631168</t>
+          <t>t-987005505154535425</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -2338,7 +2338,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>t-1020278662699134976</t>
+          <t>t-806138760937271296</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -2351,24 +2351,24 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>t-936531630868529152</t>
+          <t>t-865899138726100992</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>t-949552218650365952</t>
+          <t>t-994221853211267073</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C149" t="n">
         <v>0</v>
@@ -2377,24 +2377,24 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>t-546995440701296643</t>
+          <t>t-681167053609283584</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>t-1044757925414273025</t>
+          <t>t-734825704412446721</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C151" t="n">
         <v>0</v>
@@ -2403,72 +2403,72 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>t-1044770473932816384</t>
+          <t>t-734826990281187328</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>t-692803310668087296</t>
+          <t>t-769366123678621696</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>t-863530798334476291</t>
+          <t>t-876214781744750592</t>
         </is>
       </c>
       <c r="B154" t="n">
         <v>1</v>
       </c>
       <c r="C154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>t-876969646846603270</t>
+          <t>t-946987966475448325</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>t-961384199684001793</t>
+          <t>t-1005457960703754240</t>
         </is>
       </c>
       <c r="B156" t="n">
         <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>t-575206069833629696</t>
+          <t>t-864813217943441412</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -2481,7 +2481,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>t-595961510528180224</t>
+          <t>t-889517070559334400</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -2494,7 +2494,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>t-1014543719205400576</t>
+          <t>t-1025638750783778816</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -2507,7 +2507,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>t-1014578901966876672</t>
+          <t>t-911670405483651072</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -2520,24 +2520,24 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>t-603598228022501376</t>
+          <t>t-536338799517634560</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>t-894558986925744129</t>
+          <t>t-599936713796886528</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C162" t="n">
         <v>1</v>
@@ -2546,11 +2546,11 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>t-901151504714870784</t>
+          <t>t-721832870604640260</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163" t="n">
         <v>0</v>
@@ -2559,11 +2559,11 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>t-986530301030682624</t>
+          <t>t-721856912548044800</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C164" t="n">
         <v>1</v>
@@ -2572,20 +2572,20 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>t-826760200636002305</t>
+          <t>t-722873292755828736</t>
         </is>
       </c>
       <c r="B165" t="n">
         <v>0</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>t-870660332800397312</t>
+          <t>t-817334752848056320</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -2598,37 +2598,37 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>t-870684149173977089</t>
+          <t>t-817481338974507010</t>
         </is>
       </c>
       <c r="B167" t="n">
         <v>1</v>
       </c>
       <c r="C167" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>t-886294080040423425</t>
+          <t>t-894616667350872064</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C168" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>t-972059634101047296</t>
+          <t>t-895668017060651009</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C169" t="n">
         <v>1</v>
@@ -2637,11 +2637,11 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>t-973190028435353600</t>
+          <t>t-907946100618907648</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C170" t="n">
         <v>1</v>
@@ -2650,33 +2650,33 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>t-979726568175165440</t>
+          <t>t-913139045009633280</t>
         </is>
       </c>
       <c r="B171" t="n">
         <v>0</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>t-1001456003551031296</t>
+          <t>t-913178067195088902</t>
         </is>
       </c>
       <c r="B172" t="n">
         <v>1</v>
       </c>
       <c r="C172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>t-624561158788247552</t>
+          <t>t-913438297258708992</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -2689,24 +2689,24 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>t-636384018599030785</t>
+          <t>t-992252736560222210</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>t-859838431719030785</t>
+          <t>t-998567520113225733</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C175" t="n">
         <v>0</v>
@@ -2715,7 +2715,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>t-992484226795823105</t>
+          <t>t-1016477854391992320</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -2728,7 +2728,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>t-903173716451909632</t>
+          <t>t-1028684190169149440</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -2741,11 +2741,11 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>t-890798435175063552</t>
+          <t>t-1028764502517592065</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C178" t="n">
         <v>1</v>
@@ -2754,7 +2754,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>t-883080365442838528</t>
+          <t>t-1050012662120235008</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -2767,7 +2767,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>t-883215183442739200</t>
+          <t>t-1052665207342944261</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -2780,7 +2780,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>t-733452580194410497</t>
+          <t>t-1053196089317306368</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -2793,7 +2793,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>t-769366123678621696</t>
+          <t>t-1053286918086103042</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -2806,20 +2806,20 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>t-864813217943441412</t>
+          <t>t-1054369632671404032</t>
         </is>
       </c>
       <c r="B183" t="n">
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>t-1044637096198041600</t>
+          <t>t-593171698846830592</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -2832,33 +2832,33 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>t-898119475089686528</t>
+          <t>t-643122505524322304</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>t-898375447507030017</t>
+          <t>t-748353178270199808</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>t-898397795245215744</t>
+          <t>t-763041051426775040</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -2871,24 +2871,24 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>t-910451192064614401</t>
+          <t>t-763066608868794368</t>
         </is>
       </c>
       <c r="B188" t="n">
         <v>1</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>t-1031076096287105024</t>
+          <t>t-763135787424636928</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C189" t="n">
         <v>0</v>
@@ -2897,46 +2897,46 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>t-657266493659435008</t>
+          <t>t-897457481550618624</t>
         </is>
       </c>
       <c r="B190" t="n">
         <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>t-863311681820258304</t>
+          <t>t-1006674770983817217</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>t-997483790145589248</t>
+          <t>t-1032014514642870273</t>
         </is>
       </c>
       <c r="B192" t="n">
         <v>1</v>
       </c>
       <c r="C192" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>t-997521947297710081</t>
+          <t>t-1032716444352565254</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -2949,7 +2949,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>t-601913063172771840</t>
+          <t>t-1032730617966985222</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -2962,7 +2962,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>t-602589391198900226</t>
+          <t>t-1032743287877251074</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -2975,20 +2975,20 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>t-635524506925314049</t>
+          <t>t-1032755601561059328</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C196" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>t-820042974197334018</t>
+          <t>t-1032777059473358848</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -3001,7 +3001,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>t-907946100618907648</t>
+          <t>t-1032803632398229504</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -3014,46 +3014,46 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>t-913139045009633280</t>
+          <t>t-1032806227296890880</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>t-913178067195088902</t>
+          <t>t-1032811146875727872</t>
         </is>
       </c>
       <c r="B200" t="n">
         <v>1</v>
       </c>
       <c r="C200" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>t-913438297258708992</t>
+          <t>t-1032864439245000704</t>
         </is>
       </c>
       <c r="B201" t="n">
         <v>1</v>
       </c>
       <c r="C201" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>t-992252736560222210</t>
+          <t>t-1032982302542966789</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -3066,11 +3066,11 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>t-1009549219240308737</t>
+          <t>t-1033200303871545344</t>
         </is>
       </c>
       <c r="B203" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C203" t="n">
         <v>1</v>
@@ -3079,7 +3079,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>t-1035669454246563841</t>
+          <t>t-1033518891744411648</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -3092,11 +3092,11 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>t-628272138890252288</t>
+          <t>t-533830044200599552</t>
         </is>
       </c>
       <c r="B205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C205" t="n">
         <v>1</v>
@@ -3105,7 +3105,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>t-634745305263640576</t>
+          <t>t-534294668842766337</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -3118,7 +3118,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>t-646027426347155456</t>
+          <t>t-619624637685755904</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -3131,50 +3131,50 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>t-897457481550618624</t>
+          <t>t-655463817921626112</t>
         </is>
       </c>
       <c r="B208" t="n">
         <v>1</v>
       </c>
       <c r="C208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>t-1032014514642870273</t>
+          <t>t-538650662780022784</t>
         </is>
       </c>
       <c r="B209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>t-1032716444352565254</t>
+          <t>t-569509595133173761</t>
         </is>
       </c>
       <c r="B210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>t-1032730617966985222</t>
+          <t>t-581999689727389696</t>
         </is>
       </c>
       <c r="B211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C211" t="n">
         <v>1</v>
@@ -3183,33 +3183,33 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>t-1032743287877251074</t>
+          <t>t-616575922674769920</t>
         </is>
       </c>
       <c r="B212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>t-1032755601561059328</t>
+          <t>t-616694572853256192</t>
         </is>
       </c>
       <c r="B213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>t-1032777059473358848</t>
+          <t>t-638674545726066688</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -3222,20 +3222,20 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>t-1032803632398229504</t>
+          <t>t-638724428944150528</t>
         </is>
       </c>
       <c r="B215" t="n">
         <v>1</v>
       </c>
       <c r="C215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>t-1032806227296890880</t>
+          <t>t-639699321500364800</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -3248,7 +3248,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>t-1032811146875727872</t>
+          <t>t-639804238848237568</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -3261,59 +3261,59 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>t-1032864439245000704</t>
+          <t>t-707575261483687937</t>
         </is>
       </c>
       <c r="B218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>t-1032982302542966789</t>
+          <t>t-745683270160027648</t>
         </is>
       </c>
       <c r="B219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>t-1033200303871545344</t>
+          <t>t-757849369496301569</t>
         </is>
       </c>
       <c r="B220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>t-1033518891744411648</t>
+          <t>t-758572772490637312</t>
         </is>
       </c>
       <c r="B221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>t-1035948096843395073</t>
+          <t>t-783921439044841474</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -3326,7 +3326,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>t-796087988140834817</t>
+          <t>t-784017385615265792</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -3339,20 +3339,20 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>t-586160130313625600</t>
+          <t>t-784336997477261312</t>
         </is>
       </c>
       <c r="B224" t="n">
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>t-638674545726066688</t>
+          <t>t-784835805999198208</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -3365,7 +3365,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>t-638724428944150528</t>
+          <t>t-841637693608071170</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -3378,20 +3378,20 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>t-639699321500364800</t>
+          <t>t-968863674306834432</t>
         </is>
       </c>
       <c r="B227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>t-639804238848237568</t>
+          <t>t-1000764381108555776</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -3404,20 +3404,20 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>t-707575261483687937</t>
+          <t>t-1057289433236545538</t>
         </is>
       </c>
       <c r="B229" t="n">
         <v>0</v>
       </c>
       <c r="C229" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>t-739781293882347520</t>
+          <t>t-1061999891080232961</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -3430,11 +3430,11 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>t-755726869270523904</t>
+          <t>t-1063070010954932224</t>
         </is>
       </c>
       <c r="B231" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231" t="n">
         <v>1</v>
@@ -3443,20 +3443,20 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>t-799654742746165248</t>
+          <t>t-1063412203389370368</t>
         </is>
       </c>
       <c r="B232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C232" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>t-856624832292827137</t>
+          <t>t-1063455159370637313</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -3469,76 +3469,76 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>t-894936422980964352</t>
+          <t>t-1063463128409800704</t>
         </is>
       </c>
       <c r="B234" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>t-936972059766415360</t>
+          <t>t-1063508201319079936</t>
         </is>
       </c>
       <c r="B235" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>t-1006258184636510210</t>
+          <t>t-1063552348386140165</t>
         </is>
       </c>
       <c r="B236" t="n">
         <v>1</v>
       </c>
       <c r="C236" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>t-1052331593933688832</t>
+          <t>t-685265326112559104</t>
         </is>
       </c>
       <c r="B237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>t-1052814538419003392</t>
+          <t>t-646786233809539072</t>
         </is>
       </c>
       <c r="B238" t="n">
         <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>t-1052930779947393024</t>
+          <t>t-726931802141659137</t>
         </is>
       </c>
       <c r="B239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C239" t="n">
         <v>1</v>
@@ -3547,24 +3547,24 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>t-1052972300667146241</t>
+          <t>t-655077150693990401</t>
         </is>
       </c>
       <c r="B240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>t-1053005694822207488</t>
+          <t>t-663721804310122496</t>
         </is>
       </c>
       <c r="B241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C241" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>t-1053014697077817346</t>
+          <t>t-821117207245713408</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -3586,98 +3586,98 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>t-1053091674438725632</t>
+          <t>t-901071860456185856</t>
         </is>
       </c>
       <c r="B243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>t-1053211878921568256</t>
+          <t>t-983975898042064896</t>
         </is>
       </c>
       <c r="B244" t="n">
         <v>1</v>
       </c>
       <c r="C244" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>t-1053220103070932992</t>
+          <t>t-984343410269151233</t>
         </is>
       </c>
       <c r="B245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>t-1053451825607774209</t>
+          <t>t-560425264807944193</t>
         </is>
       </c>
       <c r="B246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>t-1053915265375834112</t>
+          <t>t-811342708061024256</t>
         </is>
       </c>
       <c r="B247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>t-1057289433236545538</t>
+          <t>t-573292412430376960</t>
         </is>
       </c>
       <c r="B248" t="n">
         <v>0</v>
       </c>
       <c r="C248" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>t-1061999891080232961</t>
+          <t>t-628489671656517632</t>
         </is>
       </c>
       <c r="B249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>t-1063070010954932224</t>
+          <t>t-778893752471543808</t>
         </is>
       </c>
       <c r="B250" t="n">
@@ -3690,7 +3690,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>t-1063412203389370368</t>
+          <t>t-778933660334559232</t>
         </is>
       </c>
       <c r="B251" t="n">
@@ -3703,33 +3703,33 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>t-1063455159370637313</t>
+          <t>t-998345989382705152</t>
         </is>
       </c>
       <c r="B252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>t-1063463128409800704</t>
+          <t>t-571711350180868097</t>
         </is>
       </c>
       <c r="B253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>t-1063508201319079936</t>
+          <t>t-741029103147442176</t>
         </is>
       </c>
       <c r="B254" t="n">
@@ -3742,37 +3742,37 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>t-1063552348386140165</t>
+          <t>t-850359691771293697</t>
         </is>
       </c>
       <c r="B255" t="n">
         <v>1</v>
       </c>
       <c r="C255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>t-541450804008218624</t>
+          <t>t-892449776129777665</t>
         </is>
       </c>
       <c r="B256" t="n">
         <v>0</v>
       </c>
       <c r="C256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>t-754470366408507392</t>
+          <t>t-892462041277091840</t>
         </is>
       </c>
       <c r="B257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C257" t="n">
         <v>1</v>
@@ -3781,20 +3781,20 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>t-859608993752379392</t>
+          <t>t-892471980875808773</t>
         </is>
       </c>
       <c r="B258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>t-910953097316376576</t>
+          <t>t-892472490483646466</t>
         </is>
       </c>
       <c r="B259" t="n">
@@ -3807,7 +3807,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>t-910955895714123776</t>
+          <t>t-892606487482089472</t>
         </is>
       </c>
       <c r="B260" t="n">
@@ -3820,7 +3820,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>t-684979291696664576</t>
+          <t>t-892633367342088192</t>
         </is>
       </c>
       <c r="B261" t="n">
@@ -3833,24 +3833,24 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>t-817123537488084993</t>
+          <t>t-892700840817045504</t>
         </is>
       </c>
       <c r="B262" t="n">
         <v>1</v>
       </c>
       <c r="C262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>t-836430214368481288</t>
+          <t>t-892731725897281538</t>
         </is>
       </c>
       <c r="B263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C263" t="n">
         <v>1</v>
@@ -3859,11 +3859,11 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>t-570559495811813376</t>
+          <t>t-573281947792883712</t>
         </is>
       </c>
       <c r="B264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C264" t="n">
         <v>0</v>
@@ -3872,7 +3872,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>t-570650767369109504</t>
+          <t>t-771375628176072704</t>
         </is>
       </c>
       <c r="B265" t="n">
@@ -3885,11 +3885,11 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>t-570656230466838528</t>
+          <t>t-884636889948471296</t>
         </is>
       </c>
       <c r="B266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C266" t="n">
         <v>0</v>
@@ -3898,11 +3898,11 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>t-570659758706962432</t>
+          <t>t-887004122628710405</t>
         </is>
       </c>
       <c r="B267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C267" t="n">
         <v>1</v>
@@ -3911,11 +3911,11 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>t-570724512095969280</t>
+          <t>t-887017424306008065</t>
         </is>
       </c>
       <c r="B268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C268" t="n">
         <v>1</v>
@@ -3924,20 +3924,20 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>t-570966152807100416</t>
+          <t>t-874804635327905792</t>
         </is>
       </c>
       <c r="B269" t="n">
         <v>1</v>
       </c>
       <c r="C269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>t-570990183648243712</t>
+          <t>t-579030352271917056</t>
         </is>
       </c>
       <c r="B270" t="n">
@@ -3950,7 +3950,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>t-571060362520502272</t>
+          <t>t-579089809991331841</t>
         </is>
       </c>
       <c r="B271" t="n">
@@ -3963,7 +3963,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>t-571231922355097600</t>
+          <t>t-821077876112035840</t>
         </is>
       </c>
       <c r="B272" t="n">
@@ -3976,20 +3976,20 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>t-571320451407974400</t>
+          <t>t-821090113476325376</t>
         </is>
       </c>
       <c r="B273" t="n">
         <v>1</v>
       </c>
       <c r="C273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>t-571330597400018944</t>
+          <t>t-603639937368469504</t>
         </is>
       </c>
       <c r="B274" t="n">
@@ -4002,50 +4002,50 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>t-571345826099941376</t>
+          <t>t-604106567907057664</t>
         </is>
       </c>
       <c r="B275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>t-571920017329156096</t>
+          <t>t-605045307844337664</t>
         </is>
       </c>
       <c r="B276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C276" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>t-572029056453115906</t>
+          <t>t-765721842803802112</t>
         </is>
       </c>
       <c r="B277" t="n">
         <v>0</v>
       </c>
       <c r="C277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>t-573087826360836097</t>
+          <t>t-774740590848188416</t>
         </is>
       </c>
       <c r="B278" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C278" t="n">
         <v>1</v>
@@ -4054,46 +4054,46 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>t-769170271928483840</t>
+          <t>t-1038395251214495744</t>
         </is>
       </c>
       <c r="B279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C279" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>t-801380815166930945</t>
+          <t>t-1038467054960095234</t>
         </is>
       </c>
       <c r="B280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C280" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>t-901071860456185856</t>
+          <t>t-1038555106885681153</t>
         </is>
       </c>
       <c r="B281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C281" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>t-983975898042064896</t>
+          <t>t-607899372177747968</t>
         </is>
       </c>
       <c r="B282" t="n">
@@ -4106,7 +4106,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>t-984343410269151233</t>
+          <t>t-680032445673148416</t>
         </is>
       </c>
       <c r="B283" t="n">
@@ -4119,24 +4119,24 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>t-560425264807944193</t>
+          <t>t-895489338364055553</t>
         </is>
       </c>
       <c r="B284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C284" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>t-581325099023892480</t>
+          <t>t-919294420465229824</t>
         </is>
       </c>
       <c r="B285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C285" t="n">
         <v>1</v>
@@ -4145,33 +4145,33 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>t-581326319130116096</t>
+          <t>t-1027575306226475008</t>
         </is>
       </c>
       <c r="B286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>t-581406863343779840</t>
+          <t>t-762742863394254850</t>
         </is>
       </c>
       <c r="B287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>t-581587820248109056</t>
+          <t>t-668278058953084928</t>
         </is>
       </c>
       <c r="B288" t="n">
@@ -4184,7 +4184,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>t-610512692353310721</t>
+          <t>t-922944953696899072</t>
         </is>
       </c>
       <c r="B289" t="n">
@@ -4197,7 +4197,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>t-610555659969409025</t>
+          <t>t-922950403255341056</t>
         </is>
       </c>
       <c r="B290" t="n">
@@ -4210,7 +4210,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>t-686490326228402176</t>
+          <t>t-922959565792083968</t>
         </is>
       </c>
       <c r="B291" t="n">
@@ -4223,7 +4223,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>t-687307828932030464</t>
+          <t>t-803284826191171584</t>
         </is>
       </c>
       <c r="B292" t="n">
@@ -4236,37 +4236,37 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>t-697026011876233216</t>
+          <t>t-863149830931185664</t>
         </is>
       </c>
       <c r="B293" t="n">
         <v>1</v>
       </c>
       <c r="C293" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>t-722677158112587776</t>
+          <t>t-976481160363692032</t>
         </is>
       </c>
       <c r="B294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>t-778893752471543808</t>
+          <t>t-685125009120038913</t>
         </is>
       </c>
       <c r="B295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C295" t="n">
         <v>1</v>
@@ -4275,24 +4275,24 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>t-778933660334559232</t>
+          <t>t-694804362510503936</t>
         </is>
       </c>
       <c r="B296" t="n">
         <v>1</v>
       </c>
       <c r="C296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>t-800018818399694848</t>
+          <t>t-848401927432019970</t>
         </is>
       </c>
       <c r="B297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C297" t="n">
         <v>1</v>
@@ -4301,20 +4301,20 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>t-800716652195282946</t>
+          <t>t-954775347962241025</t>
         </is>
       </c>
       <c r="B298" t="n">
         <v>0</v>
       </c>
       <c r="C298" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>t-894726430050754561</t>
+          <t>t-954792612103442432</t>
         </is>
       </c>
       <c r="B299" t="n">
@@ -4327,11 +4327,11 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>t-913738686994501632</t>
+          <t>t-954866409300987904</t>
         </is>
       </c>
       <c r="B300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C300" t="n">
         <v>1</v>
@@ -4340,33 +4340,33 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>t-913756608974540800</t>
+          <t>t-715468390047961088</t>
         </is>
       </c>
       <c r="B301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>t-913812012400087040</t>
+          <t>t-910172109506273280</t>
         </is>
       </c>
       <c r="B302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>t-992126872036233224</t>
+          <t>t-725708603060031489</t>
         </is>
       </c>
       <c r="B303" t="n">
@@ -4379,37 +4379,37 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>t-993085432052273153</t>
+          <t>t-734458703231885312</t>
         </is>
       </c>
       <c r="B304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>t-817491496857255936</t>
+          <t>t-829844333205413888</t>
         </is>
       </c>
       <c r="B305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C305" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>t-571711350180868097</t>
+          <t>t-1009997647032344576</t>
         </is>
       </c>
       <c r="B306" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C306" t="n">
         <v>1</v>
@@ -4418,7 +4418,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>t-576618970368876544</t>
+          <t>t-753754552936136704</t>
         </is>
       </c>
       <c r="B307" t="n">
@@ -4431,7 +4431,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>t-651859489713291264</t>
+          <t>t-880159202567753728</t>
         </is>
       </c>
       <c r="B308" t="n">
@@ -4444,7 +4444,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>t-652540388272553984</t>
+          <t>t-904025443510214656</t>
         </is>
       </c>
       <c r="B309" t="n">
@@ -4457,7 +4457,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>t-652542102539235329</t>
+          <t>t-904025763938217984</t>
         </is>
       </c>
       <c r="B310" t="n">
@@ -4470,11 +4470,11 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>t-783130241195585536</t>
+          <t>t-904026823356506112</t>
         </is>
       </c>
       <c r="B311" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C311" t="n">
         <v>1</v>
@@ -4483,24 +4483,24 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>t-783135151601704960</t>
+          <t>t-779013669589884928</t>
         </is>
       </c>
       <c r="B312" t="n">
         <v>0</v>
       </c>
       <c r="C312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>t-798356661148655616</t>
+          <t>t-788788619779665920</t>
         </is>
       </c>
       <c r="B313" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C313" t="n">
         <v>1</v>
@@ -4509,76 +4509,76 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>t-798650812511588352</t>
+          <t>t-796435007673946112</t>
         </is>
       </c>
       <c r="B314" t="n">
         <v>1</v>
       </c>
       <c r="C314" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>t-897976904019476481</t>
+          <t>t-796529318373584896</t>
         </is>
       </c>
       <c r="B315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C315" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>t-995839519449640960</t>
+          <t>t-796701113995104256</t>
         </is>
       </c>
       <c r="B316" t="n">
         <v>1</v>
       </c>
       <c r="C316" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>t-1042410099652919297</t>
+          <t>t-796745584795389952</t>
         </is>
       </c>
       <c r="B317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C317" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>t-572732322178572288</t>
+          <t>t-848851618011525120</t>
         </is>
       </c>
       <c r="B318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>t-572748274618277888</t>
+          <t>t-814665332673703936</t>
         </is>
       </c>
       <c r="B319" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C319" t="n">
         <v>1</v>
@@ -4587,7 +4587,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>t-572762505111580673</t>
+          <t>t-814669018061803521</t>
         </is>
       </c>
       <c r="B320" t="n">
@@ -4600,7 +4600,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>t-573486943880638464</t>
+          <t>t-852608222380924929</t>
         </is>
       </c>
       <c r="B321" t="n">
@@ -4613,11 +4613,11 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>t-572808490965733378</t>
+          <t>t-852804949515698178</t>
         </is>
       </c>
       <c r="B322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C322" t="n">
         <v>1</v>
@@ -4626,7 +4626,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>t-763085869045653505</t>
+          <t>t-857651953928744960</t>
         </is>
       </c>
       <c r="B323" t="n">
@@ -4639,7 +4639,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>t-763088808799797248</t>
+          <t>t-841401006797815808</t>
         </is>
       </c>
       <c r="B324" t="n">
@@ -4652,85 +4652,85 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>t-887004122628710405</t>
+          <t>t-861539001962041345</t>
         </is>
       </c>
       <c r="B325" t="n">
         <v>0</v>
       </c>
       <c r="C325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>t-887017424306008065</t>
+          <t>t-848529770258288642</t>
         </is>
       </c>
       <c r="B326" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>t-960911174505238534</t>
+          <t>t-854163806288834560</t>
         </is>
       </c>
       <c r="B327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>t-1047526401644138497</t>
+          <t>t-860879398387556352</t>
         </is>
       </c>
       <c r="B328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C328" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>t-1057298961642471425</t>
+          <t>t-877327075954245633</t>
         </is>
       </c>
       <c r="B329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C329" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>t-1050145290718564352</t>
+          <t>t-1026649986782650369</t>
         </is>
       </c>
       <c r="B330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>t-599007393494605824</t>
+          <t>t-1045400324041846785</t>
         </is>
       </c>
       <c r="B331" t="n">
@@ -4743,7 +4743,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>t-599125027116568576</t>
+          <t>t-1042831980822454273</t>
         </is>
       </c>
       <c r="B332" t="n">
@@ -4756,7 +4756,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>t-603639937368469504</t>
+          <t>t-1042864703981084672</t>
         </is>
       </c>
       <c r="B333" t="n">
@@ -4769,33 +4769,33 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>t-604106567907057664</t>
+          <t>t-1042868533963776005</t>
         </is>
       </c>
       <c r="B334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>t-605045307844337664</t>
+          <t>t-1043255346553389058</t>
         </is>
       </c>
       <c r="B335" t="n">
         <v>1</v>
       </c>
       <c r="C335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>t-786005533685710849</t>
+          <t>t-588767869539733506</t>
         </is>
       </c>
       <c r="B336" t="n">
@@ -4808,20 +4808,20 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>t-851578277311373312</t>
+          <t>t-616316575658807296</t>
         </is>
       </c>
       <c r="B337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C337" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>t-872233585960337408</t>
+          <t>t-850388688303529986</t>
         </is>
       </c>
       <c r="B338" t="n">
@@ -4834,59 +4834,59 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>t-1038395251214495744</t>
+          <t>t-850540226590253057</t>
         </is>
       </c>
       <c r="B339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>t-1038467054960095234</t>
+          <t>t-859937675339497473</t>
         </is>
       </c>
       <c r="B340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>t-1038555106885681153</t>
+          <t>t-898367654507032576</t>
         </is>
       </c>
       <c r="B341" t="n">
         <v>1</v>
       </c>
       <c r="C341" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>t-1041460734738063360</t>
+          <t>t-954911597251657728</t>
         </is>
       </c>
       <c r="B342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C342" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>t-1041507023660081152</t>
+          <t>t-1019582623679696898</t>
         </is>
       </c>
       <c r="B343" t="n">
@@ -4899,33 +4899,33 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>t-622598644009668608</t>
+          <t>t-513212132176175105</t>
         </is>
       </c>
       <c r="B344" t="n">
         <v>1</v>
       </c>
       <c r="C344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>t-629437596280750080</t>
+          <t>t-519370037812277248</t>
         </is>
       </c>
       <c r="B345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>t-719978473687633922</t>
+          <t>t-1027253242261069824</t>
         </is>
       </c>
       <c r="B346" t="n">
@@ -4938,7 +4938,7 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>t-676228752599314434</t>
+          <t>t-1048603963069779968</t>
         </is>
       </c>
       <c r="B347" t="n">
@@ -4951,33 +4951,33 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>t-676234421217845248</t>
+          <t>t-521063203389050882</t>
         </is>
       </c>
       <c r="B348" t="n">
         <v>0</v>
       </c>
       <c r="C348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>t-676358315065016322</t>
+          <t>t-521358835361927168</t>
         </is>
       </c>
       <c r="B349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C349" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>t-648598850530226176</t>
+          <t>t-773146400129441792</t>
         </is>
       </c>
       <c r="B350" t="n">
@@ -4990,11 +4990,11 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>t-651424335614353409</t>
+          <t>t-776037646023925760</t>
         </is>
       </c>
       <c r="B351" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C351" t="n">
         <v>0</v>
@@ -5003,7 +5003,7 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>t-651596952564572160</t>
+          <t>t-786070938412515329</t>
         </is>
       </c>
       <c r="B352" t="n">
@@ -5016,11 +5016,11 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>t-762366384747589634</t>
+          <t>t-786266752061669376</t>
         </is>
       </c>
       <c r="B353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C353" t="n">
         <v>1</v>
@@ -5029,24 +5029,24 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>t-762414153185173504</t>
+          <t>t-786287404416135168</t>
         </is>
       </c>
       <c r="B354" t="n">
         <v>1</v>
       </c>
       <c r="C354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>t-762454271832928257</t>
+          <t>t-786588204170346496</t>
         </is>
       </c>
       <c r="B355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C355" t="n">
         <v>1</v>
@@ -5055,33 +5055,33 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>t-904587230177443840</t>
+          <t>t-786674211528015873</t>
         </is>
       </c>
       <c r="B356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>t-905072243822264320</t>
+          <t>t-824672856466423809</t>
         </is>
       </c>
       <c r="B357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C357" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>t-905081971667296257</t>
+          <t>t-519900708980948992</t>
         </is>
       </c>
       <c r="B358" t="n">
@@ -5094,7 +5094,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>t-905280030833614849</t>
+          <t>t-635444360306368512</t>
         </is>
       </c>
       <c r="B359" t="n">
@@ -5107,20 +5107,20 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>t-919294420465229824</t>
+          <t>t-674956056209063937</t>
         </is>
       </c>
       <c r="B360" t="n">
         <v>0</v>
       </c>
       <c r="C360" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>t-727600217265049600</t>
+          <t>t-529737265317421056</t>
         </is>
       </c>
       <c r="B361" t="n">
@@ -5133,7 +5133,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>t-753352623630278664</t>
+          <t>t-615884908238651393</t>
         </is>
       </c>
       <c r="B362" t="n">
@@ -5146,11 +5146,11 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>t-910961880700559360</t>
+          <t>t-738967171397758976</t>
         </is>
       </c>
       <c r="B363" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C363" t="n">
         <v>0</v>
@@ -5159,7 +5159,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>t-922944953696899072</t>
+          <t>t-832598430291730433</t>
         </is>
       </c>
       <c r="B364" t="n">
@@ -5172,20 +5172,20 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>t-922950403255341056</t>
+          <t>t-884450764084662272</t>
         </is>
       </c>
       <c r="B365" t="n">
         <v>1</v>
       </c>
       <c r="C365" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>t-922959565792083968</t>
+          <t>t-884455668140445696</t>
         </is>
       </c>
       <c r="B366" t="n">
@@ -5198,7 +5198,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>t-863149830931185664</t>
+          <t>t-884457897043927040</t>
         </is>
       </c>
       <c r="B367" t="n">
@@ -5211,24 +5211,24 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>t-685125009120038913</t>
+          <t>t-884462539458977792</t>
         </is>
       </c>
       <c r="B368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C368" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>t-692348550416633857</t>
+          <t>t-955489372547305472</t>
         </is>
       </c>
       <c r="B369" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C369" t="n">
         <v>0</v>
@@ -5237,7 +5237,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>t-720246081364365312</t>
+          <t>t-955838886860787712</t>
         </is>
       </c>
       <c r="B370" t="n">
@@ -5250,7 +5250,7 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>t-720295493985677312</t>
+          <t>t-956166896012939265</t>
         </is>
       </c>
       <c r="B371" t="n">
@@ -5263,11 +5263,11 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>t-931989476401926144</t>
+          <t>t-530728667891380225</t>
         </is>
       </c>
       <c r="B372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C372" t="n">
         <v>1</v>
@@ -5276,20 +5276,20 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>t-939871571342249985</t>
+          <t>t-595202959648096256</t>
         </is>
       </c>
       <c r="B373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>t-725708603060031489</t>
+          <t>t-676099835372654592</t>
         </is>
       </c>
       <c r="B374" t="n">
@@ -5302,7 +5302,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>t-751165986527674368</t>
+          <t>t-960182659325493248</t>
         </is>
       </c>
       <c r="B375" t="n">
@@ -5315,20 +5315,20 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>t-751167208219406336</t>
+          <t>t-534007858804056066</t>
         </is>
       </c>
       <c r="B376" t="n">
         <v>1</v>
       </c>
       <c r="C376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>t-1046763431649574912</t>
+          <t>t-984048304144166912</t>
         </is>
       </c>
       <c r="B377" t="n">
@@ -5341,33 +5341,33 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>t-996559091932770305</t>
+          <t>t-984354039067529216</t>
         </is>
       </c>
       <c r="B378" t="n">
         <v>1</v>
       </c>
       <c r="C378" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>t-772460103026868224</t>
+          <t>t-1027585082050207745</t>
         </is>
       </c>
       <c r="B379" t="n">
         <v>1</v>
       </c>
       <c r="C379" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>t-915593286122950656</t>
+          <t>t-538959622858883072</t>
         </is>
       </c>
       <c r="B380" t="n">
@@ -5380,46 +5380,46 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>t-915603421222309888</t>
+          <t>t-540907891566575616</t>
         </is>
       </c>
       <c r="B381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>t-915603564743073792</t>
+          <t>t-541174080833978368</t>
         </is>
       </c>
       <c r="B382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>t-788788619779665920</t>
+          <t>t-591871892283334656</t>
         </is>
       </c>
       <c r="B383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>t-848851618011525120</t>
+          <t>t-608655874496692224</t>
         </is>
       </c>
       <c r="B384" t="n">
@@ -5432,46 +5432,46 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>t-817388602090987520</t>
+          <t>t-609338660572536832</t>
         </is>
       </c>
       <c r="B385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C385" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>t-852608222380924929</t>
+          <t>t-609783303168782337</t>
         </is>
       </c>
       <c r="B386" t="n">
         <v>0</v>
       </c>
       <c r="C386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>t-852804949515698178</t>
+          <t>t-610483675487203328</t>
         </is>
       </c>
       <c r="B387" t="n">
         <v>0</v>
       </c>
       <c r="C387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>t-834760589746569216</t>
+          <t>t-629222720161640449</t>
         </is>
       </c>
       <c r="B388" t="n">
@@ -5484,7 +5484,7 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>t-861539001962041345</t>
+          <t>t-642582982285504512</t>
         </is>
       </c>
       <c r="B389" t="n">
@@ -5497,11 +5497,11 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>t-854163806288834560</t>
+          <t>t-762281733672820736</t>
         </is>
       </c>
       <c r="B390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C390" t="n">
         <v>1</v>
@@ -5510,46 +5510,46 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>t-877327075954245633</t>
+          <t>t-770572723777105920</t>
         </is>
       </c>
       <c r="B391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>t-881979226697740288</t>
+          <t>t-806453539409162240</t>
         </is>
       </c>
       <c r="B392" t="n">
         <v>0</v>
       </c>
       <c r="C392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>t-906573891346165760</t>
+          <t>t-806476961451216896</t>
         </is>
       </c>
       <c r="B393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C393" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>t-1034597062573211651</t>
+          <t>t-933614181286318081</t>
         </is>
       </c>
       <c r="B394" t="n">
@@ -5562,24 +5562,24 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>t-1036704309923246081</t>
+          <t>t-933625586442035205</t>
         </is>
       </c>
       <c r="B395" t="n">
         <v>0</v>
       </c>
       <c r="C395" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>t-905261367573090305</t>
+          <t>t-993438566914101248</t>
         </is>
       </c>
       <c r="B396" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C396" t="n">
         <v>1</v>
@@ -5588,7 +5588,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>t-907371676148670465</t>
+          <t>t-1038002421543391232</t>
         </is>
       </c>
       <c r="B397" t="n">
@@ -5601,24 +5601,24 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>t-913905079392047105</t>
+          <t>t-545381752093806593</t>
         </is>
       </c>
       <c r="B398" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>t-1034792477096652801</t>
+          <t>t-552766016325840896</t>
         </is>
       </c>
       <c r="B399" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C399" t="n">
         <v>1</v>
@@ -5627,20 +5627,20 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>t-527207598521843712</t>
+          <t>t-712150675111727105</t>
         </is>
       </c>
       <c r="B400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C400" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>t-527210275955818496</t>
+          <t>t-888058781363580930</t>
         </is>
       </c>
       <c r="B401" t="n">
@@ -5653,33 +5653,33 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>t-527591945795690496</t>
+          <t>t-996477889779511296</t>
         </is>
       </c>
       <c r="B402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>t-850388688303529986</t>
+          <t>t-564785591561506817</t>
         </is>
       </c>
       <c r="B403" t="n">
         <v>0</v>
       </c>
       <c r="C403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>t-850540226590253057</t>
+          <t>t-962370594363838464</t>
         </is>
       </c>
       <c r="B404" t="n">
@@ -5692,7 +5692,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>t-881960500829016064</t>
+          <t>t-987343892633747456</t>
         </is>
       </c>
       <c r="B405" t="n">
@@ -5705,7 +5705,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>t-898367654507032576</t>
+          <t>t-697699936171909120</t>
         </is>
       </c>
       <c r="B406" t="n">
@@ -5718,37 +5718,37 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>t-1040961500553388033</t>
+          <t>t-697706009293410304</t>
         </is>
       </c>
       <c r="B407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C407" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>t-513212132176175105</t>
+          <t>t-698055021934571520</t>
         </is>
       </c>
       <c r="B408" t="n">
         <v>1</v>
       </c>
       <c r="C408" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>t-1027253242261069824</t>
+          <t>t-698056879210102784</t>
         </is>
       </c>
       <c r="B409" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C409" t="n">
         <v>1</v>
@@ -5757,7 +5757,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>t-517603456123944960</t>
+          <t>t-698065167305805824</t>
         </is>
       </c>
       <c r="B410" t="n">
@@ -5770,20 +5770,20 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>t-517609652138569728</t>
+          <t>t-698086763601006593</t>
         </is>
       </c>
       <c r="B411" t="n">
         <v>1</v>
       </c>
       <c r="C411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>t-518412519053221888</t>
+          <t>t-698453860554244096</t>
         </is>
       </c>
       <c r="B412" t="n">
@@ -5796,20 +5796,20 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>t-519245102263574528</t>
+          <t>t-707530442468098049</t>
         </is>
       </c>
       <c r="B413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C413" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>t-519387709392314368</t>
+          <t>t-707587020831518720</t>
         </is>
       </c>
       <c r="B414" t="n">
@@ -5822,7 +5822,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>t-519393743326441472</t>
+          <t>t-570985250324656128</t>
         </is>
       </c>
       <c r="B415" t="n">
@@ -5835,46 +5835,46 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>t-519395800687083520</t>
+          <t>t-571078007407775744</t>
         </is>
       </c>
       <c r="B416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C416" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>t-519401695307390976</t>
+          <t>t-571808211742814209</t>
         </is>
       </c>
       <c r="B417" t="n">
         <v>1</v>
       </c>
       <c r="C417" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>t-642734533335453700</t>
+          <t>t-577532478912663552</t>
         </is>
       </c>
       <c r="B418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C418" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>t-652079150321270784</t>
+          <t>t-580368693688999936</t>
         </is>
       </c>
       <c r="B419" t="n">
@@ -5887,20 +5887,20 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>t-652171720393101312</t>
+          <t>t-720181387190530048</t>
         </is>
       </c>
       <c r="B420" t="n">
         <v>0</v>
       </c>
       <c r="C420" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>t-804010972331524096</t>
+          <t>t-778479315071664128</t>
         </is>
       </c>
       <c r="B421" t="n">
@@ -5913,7 +5913,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>t-953177789628407808</t>
+          <t>t-918068732882313216</t>
         </is>
       </c>
       <c r="B422" t="n">
@@ -5926,7 +5926,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>t-953520796361744384</t>
+          <t>t-988840187785568257</t>
         </is>
       </c>
       <c r="B423" t="n">
@@ -5939,7 +5939,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>t-984081755006259201</t>
+          <t>t-1005061843843289088</t>
         </is>
       </c>
       <c r="B424" t="n">
@@ -5952,7 +5952,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>t-737657149174730753</t>
+          <t>t-712917955391172609</t>
         </is>
       </c>
       <c r="B425" t="n">
@@ -5965,24 +5965,24 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>t-737657922885423104</t>
+          <t>t-742289179535659008</t>
         </is>
       </c>
       <c r="B426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>t-738291666285694976</t>
+          <t>t-743359058392940544</t>
         </is>
       </c>
       <c r="B427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C427" t="n">
         <v>0</v>
@@ -5991,7 +5991,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>t-674956056209063937</t>
+          <t>t-586494775089442816</t>
         </is>
       </c>
       <c r="B428" t="n">
@@ -6004,24 +6004,24 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>t-523536371525623808</t>
+          <t>t-737201412497649664</t>
         </is>
       </c>
       <c r="B429" t="n">
         <v>1</v>
       </c>
       <c r="C429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>t-931216910477414400</t>
+          <t>t-737877218718797825</t>
         </is>
       </c>
       <c r="B430" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C430" t="n">
         <v>1</v>
@@ -6030,11 +6030,11 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>t-529737265317421056</t>
+          <t>t-738015379373625344</t>
         </is>
       </c>
       <c r="B431" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C431" t="n">
         <v>1</v>
@@ -6043,33 +6043,33 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>t-644488507239628800</t>
+          <t>t-738097397058932736</t>
         </is>
       </c>
       <c r="B432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C432" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>t-644488513442983937</t>
+          <t>t-738253541266075652</t>
         </is>
       </c>
       <c r="B433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C433" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>t-738967171397758976</t>
+          <t>t-738419452778274816</t>
         </is>
       </c>
       <c r="B434" t="n">
@@ -6082,7 +6082,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>t-595202959648096256</t>
+          <t>t-738714074352123904</t>
         </is>
       </c>
       <c r="B435" t="n">
@@ -6095,7 +6095,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>t-738708820491259904</t>
+          <t>t-743692015158726656</t>
         </is>
       </c>
       <c r="B436" t="n">
@@ -6108,20 +6108,20 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>t-738754856811417601</t>
+          <t>t-743726128003588096</t>
         </is>
       </c>
       <c r="B437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C437" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>t-738830571351224320</t>
+          <t>t-740222976763830272</t>
         </is>
       </c>
       <c r="B438" t="n">
@@ -6134,33 +6134,33 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>t-739181708906467329</t>
+          <t>t-740225059193819140</t>
         </is>
       </c>
       <c r="B439" t="n">
         <v>1</v>
       </c>
       <c r="C439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>t-965860574339923968</t>
+          <t>t-740231562940297216</t>
         </is>
       </c>
       <c r="B440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C440" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>t-538959622858883072</t>
+          <t>t-740233568627068929</t>
         </is>
       </c>
       <c r="B441" t="n">
@@ -6173,33 +6173,33 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>t-694507587149111296</t>
+          <t>t-740511241383387136</t>
         </is>
       </c>
       <c r="B442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C442" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>t-734290700469166080</t>
+          <t>t-895521975434530816</t>
         </is>
       </c>
       <c r="B443" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C443" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>t-950088164777123841</t>
+          <t>t-895525136580923394</t>
         </is>
       </c>
       <c r="B444" t="n">
@@ -6212,7 +6212,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>t-950818741209747456</t>
+          <t>t-942758921533624320</t>
         </is>
       </c>
       <c r="B445" t="n">
@@ -6225,37 +6225,37 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>t-951169520584024064</t>
+          <t>t-801458708786151425</t>
         </is>
       </c>
       <c r="B446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>t-951600654866317313</t>
+          <t>t-728815708801531904</t>
         </is>
       </c>
       <c r="B447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C447" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>t-951687956045156352</t>
+          <t>t-728860742099849216</t>
         </is>
       </c>
       <c r="B448" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C448" t="n">
         <v>0</v>
@@ -6264,46 +6264,46 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>t-580823195311276032</t>
+          <t>t-605693478799065088</t>
         </is>
       </c>
       <c r="B449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C449" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>t-649269312625209344</t>
+          <t>t-605727874348384256</t>
         </is>
       </c>
       <c r="B450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C450" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>t-545381752093806593</t>
+          <t>t-605802486604046337</t>
         </is>
       </c>
       <c r="B451" t="n">
         <v>1</v>
       </c>
       <c r="C451" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>t-1056877276875374593</t>
+          <t>t-605842449722777601</t>
         </is>
       </c>
       <c r="B452" t="n">
@@ -6316,20 +6316,20 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>t-557320938375905282</t>
+          <t>t-605899935117017088</t>
         </is>
       </c>
       <c r="B453" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C453" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>t-623733200322449409</t>
+          <t>t-940349476509814789</t>
         </is>
       </c>
       <c r="B454" t="n">
@@ -6342,46 +6342,46 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>t-684255556144619520</t>
+          <t>t-608880570362437632</t>
         </is>
       </c>
       <c r="B455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C455" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>t-699529516008476673</t>
+          <t>t-867803560930627585</t>
         </is>
       </c>
       <c r="B456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C456" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>t-820214611416928256</t>
+          <t>t-868025997010055168</t>
         </is>
       </c>
       <c r="B457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C457" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>t-917052938425716736</t>
+          <t>t-868097086021095425</t>
         </is>
       </c>
       <c r="B458" t="n">
@@ -6394,7 +6394,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>t-917054284579078144</t>
+          <t>t-869075299467763714</t>
         </is>
       </c>
       <c r="B459" t="n">
@@ -6407,7 +6407,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>t-917061971631108097</t>
+          <t>t-1008938317684060160</t>
         </is>
       </c>
       <c r="B460" t="n">
@@ -6420,24 +6420,24 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>t-917080429227778048</t>
+          <t>t-1008975928465248256</t>
         </is>
       </c>
       <c r="B461" t="n">
         <v>1</v>
       </c>
       <c r="C461" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>t-917105709682216960</t>
+          <t>t-1008978373484400640</t>
         </is>
       </c>
       <c r="B462" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C462" t="n">
         <v>1</v>
@@ -6446,11 +6446,11 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>t-565566410605473792</t>
+          <t>t-1008995195113918464</t>
         </is>
       </c>
       <c r="B463" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C463" t="n">
         <v>1</v>
@@ -6459,7 +6459,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>t-801715561692626944</t>
+          <t>t-1009346793090506752</t>
         </is>
       </c>
       <c r="B464" t="n">
@@ -6472,20 +6472,20 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>t-801720307002339328</t>
+          <t>t-1009539540728639490</t>
         </is>
       </c>
       <c r="B465" t="n">
         <v>1</v>
       </c>
       <c r="C465" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>t-1050114319227195392</t>
+          <t>t-1010058406223400966</t>
         </is>
       </c>
       <c r="B466" t="n">
@@ -6498,11 +6498,11 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>t-697699936171909120</t>
+          <t>t-1011026406564823042</t>
         </is>
       </c>
       <c r="B467" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C467" t="n">
         <v>1</v>
@@ -6511,7 +6511,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>t-697706009293410304</t>
+          <t>t-615666964451606528</t>
         </is>
       </c>
       <c r="B468" t="n">
@@ -6524,7 +6524,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>t-698055021934571520</t>
+          <t>t-615728570888003584</t>
         </is>
       </c>
       <c r="B469" t="n">
@@ -6537,7 +6537,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>t-698056879210102784</t>
+          <t>t-623896530324467712</t>
         </is>
       </c>
       <c r="B470" t="n">
@@ -6550,7 +6550,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>t-698065167305805824</t>
+          <t>t-633703854580830208</t>
         </is>
       </c>
       <c r="B471" t="n">
@@ -6563,33 +6563,33 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>t-698086763601006593</t>
+          <t>t-849766480828878849</t>
         </is>
       </c>
       <c r="B472" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C472" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>t-698453860554244096</t>
+          <t>t-1038016191711928321</t>
         </is>
       </c>
       <c r="B473" t="n">
         <v>1</v>
       </c>
       <c r="C473" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>t-570985250324656128</t>
+          <t>t-1038359113791680512</t>
         </is>
       </c>
       <c r="B474" t="n">
@@ -6602,46 +6602,46 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>t-571078007407775744</t>
+          <t>t-656425382145597440</t>
         </is>
       </c>
       <c r="B475" t="n">
         <v>1</v>
       </c>
       <c r="C475" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>t-571808211742814209</t>
+          <t>t-1056610127975997440</t>
         </is>
       </c>
       <c r="B476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C476" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>t-670699425879191552</t>
+          <t>t-652148120952803329</t>
         </is>
       </c>
       <c r="B477" t="n">
         <v>0</v>
       </c>
       <c r="C477" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>t-580746776262545409</t>
+          <t>t-663799425475731457</t>
         </is>
       </c>
       <c r="B478" t="n">
@@ -6654,20 +6654,20 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>t-660085012306395136</t>
+          <t>t-723039191961985026</t>
         </is>
       </c>
       <c r="B479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C479" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>t-918068732882313216</t>
+          <t>t-908615579501780992</t>
         </is>
       </c>
       <c r="B480" t="n">
@@ -6680,11 +6680,11 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>t-1003856366128259073</t>
+          <t>t-859792354395533312</t>
         </is>
       </c>
       <c r="B481" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C481" t="n">
         <v>0</v>
@@ -6693,11 +6693,11 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>t-612970627083968512</t>
+          <t>t-860626885302202369</t>
         </is>
       </c>
       <c r="B482" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C482" t="n">
         <v>0</v>
@@ -6706,7 +6706,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>t-741661270017970176</t>
+          <t>t-861365904025714688</t>
         </is>
       </c>
       <c r="B483" t="n">
@@ -6719,11 +6719,11 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>t-776349771640496128</t>
+          <t>t-861657024731467783</t>
         </is>
       </c>
       <c r="B484" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C484" t="n">
         <v>1</v>
@@ -6732,7 +6732,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>t-873880943819460609</t>
+          <t>t-861897864632578048</t>
         </is>
       </c>
       <c r="B485" t="n">
@@ -6745,24 +6745,24 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>t-874034580747104259</t>
+          <t>t-862094425949917185</t>
         </is>
       </c>
       <c r="B486" t="n">
         <v>0</v>
       </c>
       <c r="C486" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>t-874852269765931008</t>
+          <t>t-862663540179701760</t>
         </is>
       </c>
       <c r="B487" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C487" t="n">
         <v>0</v>
@@ -6771,11 +6771,11 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>t-1017675550318612480</t>
+          <t>t-695507166833184769</t>
         </is>
       </c>
       <c r="B488" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C488" t="n">
         <v>1</v>
@@ -6784,7 +6784,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>t-633703854580830208</t>
+          <t>t-703191098403872769</t>
         </is>
       </c>
       <c r="B489" t="n">
@@ -6797,7 +6797,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>t-641169109116293120</t>
+          <t>t-703191473269780480</t>
         </is>
       </c>
       <c r="B490" t="n">
@@ -6810,7 +6810,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>t-900842879182131201</t>
+          <t>t-703218090671214592</t>
         </is>
       </c>
       <c r="B491" t="n">
@@ -6823,7 +6823,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>t-1035170375703961601</t>
+          <t>t-703248568765779969</t>
         </is>
       </c>
       <c r="B492" t="n">
@@ -6836,7 +6836,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>t-1035201829989056512</t>
+          <t>t-703357904250757120</t>
         </is>
       </c>
       <c r="B493" t="n">
@@ -6849,7 +6849,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>t-1035614467998998530</t>
+          <t>t-703380366254612480</t>
         </is>
       </c>
       <c r="B494" t="n">
@@ -6862,37 +6862,37 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>t-1038016191711928321</t>
+          <t>t-703605156500381696</t>
         </is>
       </c>
       <c r="B495" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C495" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>t-1038359113791680512</t>
+          <t>t-781871738888065024</t>
         </is>
       </c>
       <c r="B496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C496" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>t-636903909362167808</t>
+          <t>t-741709377703411712</t>
         </is>
       </c>
       <c r="B497" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C497" t="n">
         <v>1</v>
@@ -6901,7 +6901,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>t-639695836943884288</t>
+          <t>t-737669645872795648</t>
         </is>
       </c>
       <c r="B498" t="n">
@@ -6914,37 +6914,37 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>t-925429606693457921</t>
+          <t>t-743471999876472833</t>
         </is>
       </c>
       <c r="B499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C499" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>t-953295637679951872</t>
+          <t>t-890865444307042304</t>
         </is>
       </c>
       <c r="B500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C500" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>t-953311292475011072</t>
+          <t>t-933719239126642689</t>
         </is>
       </c>
       <c r="B501" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C501" t="n">
         <v>1</v>
@@ -6953,46 +6953,46 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>t-723039191961985026</t>
+          <t>t-1006391548668514309</t>
         </is>
       </c>
       <c r="B502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C502" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>t-908615579501780992</t>
+          <t>t-1006459221448318981</t>
         </is>
       </c>
       <c r="B503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C503" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>t-974126323248586752</t>
+          <t>t-738762935133188098</t>
         </is>
       </c>
       <c r="B504" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C504" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>t-701060752074010624</t>
+          <t>t-811198180654272512</t>
         </is>
       </c>
       <c r="B505" t="n">
@@ -7005,24 +7005,24 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>t-704826129178370050</t>
+          <t>t-902928093131808770</t>
         </is>
       </c>
       <c r="B506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C506" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>t-720951969716809728</t>
+          <t>t-741525012784553985</t>
         </is>
       </c>
       <c r="B507" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C507" t="n">
         <v>1</v>
@@ -7031,20 +7031,20 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>t-956932857389309953</t>
+          <t>t-743384229497679872</t>
         </is>
       </c>
       <c r="B508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C508" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>t-957576777848717312</t>
+          <t>t-834805481759789056</t>
         </is>
       </c>
       <c r="B509" t="n">
@@ -7057,24 +7057,24 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>t-949613613874077704</t>
+          <t>t-834984907881525249</t>
         </is>
       </c>
       <c r="B510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C510" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>t-957301618868965376</t>
+          <t>t-989189175357276160</t>
         </is>
       </c>
       <c r="B511" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C511" t="n">
         <v>0</v>
@@ -7083,33 +7083,33 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>t-737766517157330945</t>
+          <t>t-992831860215615489</t>
         </is>
       </c>
       <c r="B512" t="n">
         <v>1</v>
       </c>
       <c r="C512" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>t-737944067741454336</t>
+          <t>t-862454112507580416</t>
         </is>
       </c>
       <c r="B513" t="n">
         <v>1</v>
       </c>
       <c r="C513" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>t-955134939699310592</t>
+          <t>t-946052034461040640</t>
         </is>
       </c>
       <c r="B514" t="n">
@@ -7122,33 +7122,33 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>t-952868151414403072</t>
+          <t>t-887813365304705024</t>
         </is>
       </c>
       <c r="B515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C515" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>t-949338992599883776</t>
+          <t>t-892499939137335296</t>
         </is>
       </c>
       <c r="B516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C516" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>t-949550500269166593</t>
+          <t>t-904822909704822785</t>
         </is>
       </c>
       <c r="B517" t="n">
@@ -7161,11 +7161,11 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>t-740042390703099904</t>
+          <t>t-1038090181595877376</t>
         </is>
       </c>
       <c r="B518" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C518" t="n">
         <v>1</v>
@@ -7174,50 +7174,50 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>t-740196910300962816</t>
+          <t>t-905976569503592449</t>
         </is>
       </c>
       <c r="B519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C519" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>t-1005463006455754752</t>
+          <t>t-906394228602949632</t>
         </is>
       </c>
       <c r="B520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C520" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>t-743384229497679872</t>
+          <t>t-906936222282547201</t>
         </is>
       </c>
       <c r="B521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C521" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>t-824202245172592640</t>
+          <t>t-906965286787710976</t>
         </is>
       </c>
       <c r="B522" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C522" t="n">
         <v>0</v>
@@ -7226,63 +7226,63 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>t-765679686244454400</t>
+          <t>t-907173357510184965</t>
         </is>
       </c>
       <c r="B523" t="n">
         <v>1</v>
       </c>
       <c r="C523" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" t="inlineStr">
         <is>
-          <t>t-775632377695600641</t>
+          <t>t-907196691270569985</t>
         </is>
       </c>
       <c r="B524" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C524" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" t="inlineStr">
         <is>
-          <t>t-793504441022504960</t>
+          <t>t-948508791448002560</t>
         </is>
       </c>
       <c r="B525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C525" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" t="inlineStr">
         <is>
-          <t>t-795263551388663808</t>
+          <t>t-1003312973887270917</t>
         </is>
       </c>
       <c r="B526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C526" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" t="inlineStr">
         <is>
-          <t>t-803544744215384064</t>
+          <t>t-1003367321245798400</t>
         </is>
       </c>
       <c r="B527" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C527" t="n">
         <v>1</v>
@@ -7291,20 +7291,20 @@
     <row r="528">
       <c r="A528" t="inlineStr">
         <is>
-          <t>t-834314501134614528</t>
+          <t>t-1003369104735113216</t>
         </is>
       </c>
       <c r="B528" t="n">
         <v>1</v>
       </c>
       <c r="C528" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" t="inlineStr">
         <is>
-          <t>t-834984907881525249</t>
+          <t>t-1003387066909167617</t>
         </is>
       </c>
       <c r="B529" t="n">
@@ -7317,20 +7317,20 @@
     <row r="530">
       <c r="A530" t="inlineStr">
         <is>
-          <t>t-862319925528023040</t>
+          <t>t-1003393307597312000</t>
         </is>
       </c>
       <c r="B530" t="n">
         <v>1</v>
       </c>
       <c r="C530" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" t="inlineStr">
         <is>
-          <t>t-862320640791121920</t>
+          <t>t-1003471542783823872</t>
         </is>
       </c>
       <c r="B531" t="n">
@@ -7343,63 +7343,63 @@
     <row r="532">
       <c r="A532" t="inlineStr">
         <is>
-          <t>t-851409413646802945</t>
+          <t>t-1003531171559628800</t>
         </is>
       </c>
       <c r="B532" t="n">
         <v>1</v>
       </c>
       <c r="C532" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" t="inlineStr">
         <is>
-          <t>t-990385513898094592</t>
+          <t>t-1003538396285947905</t>
         </is>
       </c>
       <c r="B533" t="n">
         <v>1</v>
       </c>
       <c r="C533" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" t="inlineStr">
         <is>
-          <t>t-854059785049788419</t>
+          <t>t-1003544511115603973</t>
         </is>
       </c>
       <c r="B534" t="n">
         <v>1</v>
       </c>
       <c r="C534" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" t="inlineStr">
         <is>
-          <t>t-862454112507580416</t>
+          <t>t-1003657726029975553</t>
         </is>
       </c>
       <c r="B535" t="n">
         <v>1</v>
       </c>
       <c r="C535" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" t="inlineStr">
         <is>
-          <t>t-1019231079817973760</t>
+          <t>t-1003966949058056192</t>
         </is>
       </c>
       <c r="B536" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C536" t="n">
         <v>0</v>
@@ -7408,20 +7408,20 @@
     <row r="537">
       <c r="A537" t="inlineStr">
         <is>
-          <t>t-875285232924188672</t>
+          <t>t-956067919263346688</t>
         </is>
       </c>
       <c r="B537" t="n">
         <v>1</v>
       </c>
       <c r="C537" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" t="inlineStr">
         <is>
-          <t>t-887201249715789824</t>
+          <t>t-956083408882536448</t>
         </is>
       </c>
       <c r="B538" t="n">
@@ -7434,20 +7434,20 @@
     <row r="539">
       <c r="A539" t="inlineStr">
         <is>
-          <t>t-887813365304705024</t>
+          <t>t-955806828146827266</t>
         </is>
       </c>
       <c r="B539" t="n">
         <v>1</v>
       </c>
       <c r="C539" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" t="inlineStr">
         <is>
-          <t>t-904822909704822785</t>
+          <t>t-977185697940623360</t>
         </is>
       </c>
       <c r="B540" t="n">
@@ -7460,33 +7460,33 @@
     <row r="541">
       <c r="A541" t="inlineStr">
         <is>
-          <t>t-906119454941171712</t>
+          <t>t-1003736255149027328</t>
         </is>
       </c>
       <c r="B541" t="n">
         <v>1</v>
       </c>
       <c r="C541" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" t="inlineStr">
         <is>
-          <t>t-1003312973887270917</t>
+          <t>t-950875222734929921</t>
         </is>
       </c>
       <c r="B542" t="n">
         <v>1</v>
       </c>
       <c r="C542" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" t="inlineStr">
         <is>
-          <t>t-1003367321245798400</t>
+          <t>t-950925554487738369</t>
         </is>
       </c>
       <c r="B543" t="n">
@@ -7499,33 +7499,33 @@
     <row r="544">
       <c r="A544" t="inlineStr">
         <is>
-          <t>t-1003369104735113216</t>
+          <t>t-565143761131671552</t>
         </is>
       </c>
       <c r="B544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C544" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" t="inlineStr">
         <is>
-          <t>t-1003387066909167617</t>
+          <t>t-590545916886659072</t>
         </is>
       </c>
       <c r="B545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C545" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" t="inlineStr">
         <is>
-          <t>t-1003393307597312000</t>
+          <t>t-673149443068309504</t>
         </is>
       </c>
       <c r="B546" t="n">
@@ -7538,20 +7538,20 @@
     <row r="547">
       <c r="A547" t="inlineStr">
         <is>
-          <t>t-1003471542783823872</t>
+          <t>t-675498810152325120</t>
         </is>
       </c>
       <c r="B547" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C547" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" t="inlineStr">
         <is>
-          <t>t-1003531171559628800</t>
+          <t>t-904503608246362112</t>
         </is>
       </c>
       <c r="B548" t="n">
@@ -7564,7 +7564,7 @@
     <row r="549">
       <c r="A549" t="inlineStr">
         <is>
-          <t>t-1003538396285947905</t>
+          <t>t-510001639617351681</t>
         </is>
       </c>
       <c r="B549" t="n">
@@ -7577,11 +7577,11 @@
     <row r="550">
       <c r="A550" t="inlineStr">
         <is>
-          <t>t-1003544511115603973</t>
+          <t>t-556228745443282944</t>
         </is>
       </c>
       <c r="B550" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C550" t="n">
         <v>1</v>
@@ -7590,24 +7590,24 @@
     <row r="551">
       <c r="A551" t="inlineStr">
         <is>
-          <t>t-1003657726029975553</t>
+          <t>t-566257094865981440</t>
         </is>
       </c>
       <c r="B551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C551" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" t="inlineStr">
         <is>
-          <t>t-1003966949058056192</t>
+          <t>t-579789832131575808</t>
         </is>
       </c>
       <c r="B552" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C552" t="n">
         <v>0</v>
@@ -7616,33 +7616,33 @@
     <row r="553">
       <c r="A553" t="inlineStr">
         <is>
-          <t>t-1003736255149027328</t>
+          <t>t-580874616324943872</t>
         </is>
       </c>
       <c r="B553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C553" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" t="inlineStr">
         <is>
-          <t>t-1006233702052057088</t>
+          <t>t-627052129107087360</t>
         </is>
       </c>
       <c r="B554" t="n">
         <v>1</v>
       </c>
       <c r="C554" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" t="inlineStr">
         <is>
-          <t>t-1017566472292495360</t>
+          <t>t-627062516095455232</t>
         </is>
       </c>
       <c r="B555" t="n">
@@ -7655,11 +7655,11 @@
     <row r="556">
       <c r="A556" t="inlineStr">
         <is>
-          <t>t-786169556586770432</t>
+          <t>t-627070573118488576</t>
         </is>
       </c>
       <c r="B556" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C556" t="n">
         <v>1</v>
@@ -7668,7 +7668,7 @@
     <row r="557">
       <c r="A557" t="inlineStr">
         <is>
-          <t>t-550997963590610944</t>
+          <t>t-627075912631083008</t>
         </is>
       </c>
       <c r="B557" t="n">
@@ -7681,46 +7681,46 @@
     <row r="558">
       <c r="A558" t="inlineStr">
         <is>
-          <t>t-551059868657152002</t>
+          <t>t-627076573653561344</t>
         </is>
       </c>
       <c r="B558" t="n">
         <v>1</v>
       </c>
       <c r="C558" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" t="inlineStr">
         <is>
-          <t>t-551164779646038017</t>
+          <t>t-629559315221737472</t>
         </is>
       </c>
       <c r="B559" t="n">
         <v>0</v>
       </c>
       <c r="C559" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" t="inlineStr">
         <is>
-          <t>t-552328482282553344</t>
+          <t>t-643644357350948864</t>
         </is>
       </c>
       <c r="B560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C560" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" t="inlineStr">
         <is>
-          <t>t-552381413899898881</t>
+          <t>t-697436431816355840</t>
         </is>
       </c>
       <c r="B561" t="n">
@@ -7733,7 +7733,7 @@
     <row r="562">
       <c r="A562" t="inlineStr">
         <is>
-          <t>t-552754433155928064</t>
+          <t>t-697627864380809216</t>
         </is>
       </c>
       <c r="B562" t="n">
@@ -7746,11 +7746,11 @@
     <row r="563">
       <c r="A563" t="inlineStr">
         <is>
-          <t>t-552860760968138752</t>
+          <t>t-698371050527023104</t>
         </is>
       </c>
       <c r="B563" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C563" t="n">
         <v>1</v>
@@ -7759,20 +7759,20 @@
     <row r="564">
       <c r="A564" t="inlineStr">
         <is>
-          <t>t-552960294360977408</t>
+          <t>t-698770244375093249</t>
         </is>
       </c>
       <c r="B564" t="n">
         <v>1</v>
       </c>
       <c r="C564" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" t="inlineStr">
         <is>
-          <t>t-553046169975148544</t>
+          <t>t-719019371499130881</t>
         </is>
       </c>
       <c r="B565" t="n">
@@ -7785,11 +7785,11 @@
     <row r="566">
       <c r="A566" t="inlineStr">
         <is>
-          <t>t-553111267569713154</t>
+          <t>t-755613145079484416</t>
         </is>
       </c>
       <c r="B566" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C566" t="n">
         <v>1</v>
@@ -7798,46 +7798,46 @@
     <row r="567">
       <c r="A567" t="inlineStr">
         <is>
-          <t>t-553535305601392640</t>
+          <t>t-806863559212679168</t>
         </is>
       </c>
       <c r="B567" t="n">
         <v>1</v>
       </c>
       <c r="C567" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" t="inlineStr">
         <is>
-          <t>t-620843348505432064</t>
+          <t>t-814010823689408512</t>
         </is>
       </c>
       <c r="B568" t="n">
         <v>0</v>
       </c>
       <c r="C568" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" t="inlineStr">
         <is>
-          <t>t-648493309824925696</t>
+          <t>t-815395045314560000</t>
         </is>
       </c>
       <c r="B569" t="n">
         <v>1</v>
       </c>
       <c r="C569" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" t="inlineStr">
         <is>
-          <t>t-683238954309566464</t>
+          <t>t-815855888129028096</t>
         </is>
       </c>
       <c r="B570" t="n">
@@ -7850,7 +7850,7 @@
     <row r="571">
       <c r="A571" t="inlineStr">
         <is>
-          <t>t-683901242314067968</t>
+          <t>t-815865821570289668</t>
         </is>
       </c>
       <c r="B571" t="n">
@@ -7863,50 +7863,50 @@
     <row r="572">
       <c r="A572" t="inlineStr">
         <is>
-          <t>t-697436431816355840</t>
+          <t>t-815882427159678976</t>
         </is>
       </c>
       <c r="B572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C572" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" t="inlineStr">
         <is>
-          <t>t-697627864380809216</t>
+          <t>t-815960345336545280</t>
         </is>
       </c>
       <c r="B573" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C573" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" t="inlineStr">
         <is>
-          <t>t-698371050527023104</t>
+          <t>t-816280699388841984</t>
         </is>
       </c>
       <c r="B574" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C574" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>t-698770244375093249</t>
+          <t>t-925890248541794304</t>
         </is>
       </c>
       <c r="B575" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C575" t="n">
         <v>0</v>
@@ -7915,20 +7915,20 @@
     <row r="576">
       <c r="A576" t="inlineStr">
         <is>
-          <t>t-711861360414433281</t>
+          <t>t-935721877053505536</t>
         </is>
       </c>
       <c r="B576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C576" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" t="inlineStr">
         <is>
-          <t>t-711871478451417088</t>
+          <t>t-947798399184785408</t>
         </is>
       </c>
       <c r="B577" t="n">
@@ -7941,7 +7941,7 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>t-711899328244113408</t>
+          <t>t-947806740518641664</t>
         </is>
       </c>
       <c r="B578" t="n">
@@ -7954,11 +7954,11 @@
     <row r="579">
       <c r="A579" t="inlineStr">
         <is>
-          <t>t-712616490994892801</t>
+          <t>t-947808691230822401</t>
         </is>
       </c>
       <c r="B579" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C579" t="n">
         <v>0</v>
@@ -7967,37 +7967,37 @@
     <row r="580">
       <c r="A580" t="inlineStr">
         <is>
-          <t>t-719019371499130881</t>
+          <t>t-947833275673747457</t>
         </is>
       </c>
       <c r="B580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C580" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" t="inlineStr">
         <is>
-          <t>t-736860584470159360</t>
+          <t>t-948185680043155456</t>
         </is>
       </c>
       <c r="B581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" t="inlineStr">
         <is>
-          <t>t-815395045314560000</t>
+          <t>t-948407157803728896</t>
         </is>
       </c>
       <c r="B582" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C582" t="n">
         <v>1</v>
@@ -8006,7 +8006,7 @@
     <row r="583">
       <c r="A583" t="inlineStr">
         <is>
-          <t>t-815855888129028096</t>
+          <t>t-948721205443358720</t>
         </is>
       </c>
       <c r="B583" t="n">
@@ -8019,7 +8019,7 @@
     <row r="584">
       <c r="A584" t="inlineStr">
         <is>
-          <t>t-815865821570289668</t>
+          <t>t-948800260238815232</t>
         </is>
       </c>
       <c r="B584" t="n">
@@ -8032,20 +8032,20 @@
     <row r="585">
       <c r="A585" t="inlineStr">
         <is>
-          <t>t-815882427159678976</t>
+          <t>t-948884291743870976</t>
         </is>
       </c>
       <c r="B585" t="n">
         <v>1</v>
       </c>
       <c r="C585" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" t="inlineStr">
         <is>
-          <t>t-815960345336545280</t>
+          <t>t-950179252325859328</t>
         </is>
       </c>
       <c r="B586" t="n">
@@ -8058,24 +8058,24 @@
     <row r="587">
       <c r="A587" t="inlineStr">
         <is>
-          <t>t-816280699388841984</t>
+          <t>t-950592034162774021</t>
         </is>
       </c>
       <c r="B587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C587" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>t-828910647861616640</t>
+          <t>t-950680110948007937</t>
         </is>
       </c>
       <c r="B588" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C588" t="n">
         <v>1</v>
@@ -8084,11 +8084,11 @@
     <row r="589">
       <c r="A589" t="inlineStr">
         <is>
-          <t>t-829261659726295045</t>
+          <t>t-951371471217090560</t>
         </is>
       </c>
       <c r="B589" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C589" t="n">
         <v>1</v>
@@ -8097,7 +8097,7 @@
     <row r="590">
       <c r="A590" t="inlineStr">
         <is>
-          <t>t-879622376966635521</t>
+          <t>t-952033538005716993</t>
         </is>
       </c>
       <c r="B590" t="n">
@@ -8110,7 +8110,7 @@
     <row r="591">
       <c r="A591" t="inlineStr">
         <is>
-          <t>t-879625739317854209</t>
+          <t>t-952059671258447872</t>
         </is>
       </c>
       <c r="B591" t="n">
@@ -8123,11 +8123,11 @@
     <row r="592">
       <c r="A592" t="inlineStr">
         <is>
-          <t>t-879987948296568834</t>
+          <t>t-952061652182028289</t>
         </is>
       </c>
       <c r="B592" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C592" t="n">
         <v>1</v>
@@ -8136,20 +8136,20 @@
     <row r="593">
       <c r="A593" t="inlineStr">
         <is>
-          <t>t-910155731134853120</t>
+          <t>t-952118349386850304</t>
         </is>
       </c>
       <c r="B593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C593" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" t="inlineStr">
         <is>
-          <t>t-910165111620329472</t>
+          <t>t-953168990901284865</t>
         </is>
       </c>
       <c r="B594" t="n">
@@ -8162,33 +8162,33 @@
     <row r="595">
       <c r="A595" t="inlineStr">
         <is>
-          <t>t-921445800072298496</t>
+          <t>t-994075228354510848</t>
         </is>
       </c>
       <c r="B595" t="n">
         <v>0</v>
       </c>
       <c r="C595" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" t="inlineStr">
         <is>
-          <t>t-922085813818658816</t>
+          <t>t-1041319973430255616</t>
         </is>
       </c>
       <c r="B596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C596" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" t="inlineStr">
         <is>
-          <t>t-950179252325859328</t>
+          <t>t-511340405753786369</t>
         </is>
       </c>
       <c r="B597" t="n">
@@ -8201,11 +8201,11 @@
     <row r="598">
       <c r="A598" t="inlineStr">
         <is>
-          <t>t-950592034162774021</t>
+          <t>t-675258412049956865</t>
         </is>
       </c>
       <c r="B598" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C598" t="n">
         <v>0</v>
@@ -8214,7 +8214,7 @@
     <row r="599">
       <c r="A599" t="inlineStr">
         <is>
-          <t>t-950680110948007937</t>
+          <t>t-710310372985741313</t>
         </is>
       </c>
       <c r="B599" t="n">
@@ -8227,11 +8227,11 @@
     <row r="600">
       <c r="A600" t="inlineStr">
         <is>
-          <t>t-951371471217090560</t>
+          <t>t-545488523856338944</t>
         </is>
       </c>
       <c r="B600" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C600" t="n">
         <v>1</v>
@@ -8240,7 +8240,7 @@
     <row r="601">
       <c r="A601" t="inlineStr">
         <is>
-          <t>t-952033538005716993</t>
+          <t>t-571610231173599232</t>
         </is>
       </c>
       <c r="B601" t="n">
@@ -8253,7 +8253,7 @@
     <row r="602">
       <c r="A602" t="inlineStr">
         <is>
-          <t>t-952059671258447872</t>
+          <t>t-573022010348982272</t>
         </is>
       </c>
       <c r="B602" t="n">
@@ -8266,7 +8266,7 @@
     <row r="603">
       <c r="A603" t="inlineStr">
         <is>
-          <t>t-952061652182028289</t>
+          <t>t-583500409458688000</t>
         </is>
       </c>
       <c r="B603" t="n">
@@ -8279,11 +8279,11 @@
     <row r="604">
       <c r="A604" t="inlineStr">
         <is>
-          <t>t-952118349386850304</t>
+          <t>t-583500450495795200</t>
         </is>
       </c>
       <c r="B604" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C604" t="n">
         <v>0</v>
@@ -8292,20 +8292,20 @@
     <row r="605">
       <c r="A605" t="inlineStr">
         <is>
-          <t>t-953168990901284865</t>
+          <t>t-583501741481594881</t>
         </is>
       </c>
       <c r="B605" t="n">
         <v>1</v>
       </c>
       <c r="C605" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" t="inlineStr">
         <is>
-          <t>t-978263707544305664</t>
+          <t>t-583504251168497664</t>
         </is>
       </c>
       <c r="B606" t="n">
@@ -8318,7 +8318,7 @@
     <row r="607">
       <c r="A607" t="inlineStr">
         <is>
-          <t>t-520490218210594817</t>
+          <t>t-583504875067056129</t>
         </is>
       </c>
       <c r="B607" t="n">
@@ -8331,7 +8331,7 @@
     <row r="608">
       <c r="A608" t="inlineStr">
         <is>
-          <t>t-762938358486052865</t>
+          <t>t-584246834618474497</t>
         </is>
       </c>
       <c r="B608" t="n">
@@ -8344,24 +8344,24 @@
     <row r="609">
       <c r="A609" t="inlineStr">
         <is>
-          <t>t-827493643661381632</t>
+          <t>t-662632429539057666</t>
         </is>
       </c>
       <c r="B609" t="n">
         <v>1</v>
       </c>
       <c r="C609" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" t="inlineStr">
         <is>
-          <t>t-864437375618830336</t>
+          <t>t-662681193154920448</t>
         </is>
       </c>
       <c r="B610" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C610" t="n">
         <v>1</v>
@@ -8370,37 +8370,37 @@
     <row r="611">
       <c r="A611" t="inlineStr">
         <is>
-          <t>t-871870603011043328</t>
+          <t>t-663567974029131776</t>
         </is>
       </c>
       <c r="B611" t="n">
         <v>0</v>
       </c>
       <c r="C611" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" t="inlineStr">
         <is>
-          <t>t-872126007855038464</t>
+          <t>t-666604346558271489</t>
         </is>
       </c>
       <c r="B612" t="n">
         <v>0</v>
       </c>
       <c r="C612" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" t="inlineStr">
         <is>
-          <t>t-922122902136172545</t>
+          <t>t-667233953934282752</t>
         </is>
       </c>
       <c r="B613" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C613" t="n">
         <v>1</v>
@@ -8409,7 +8409,7 @@
     <row r="614">
       <c r="A614" t="inlineStr">
         <is>
-          <t>t-948796201708675072</t>
+          <t>t-669092226840981504</t>
         </is>
       </c>
       <c r="B614" t="n">
@@ -8422,7 +8422,7 @@
     <row r="615">
       <c r="A615" t="inlineStr">
         <is>
-          <t>t-948886764244033537</t>
+          <t>t-671487099355426816</t>
         </is>
       </c>
       <c r="B615" t="n">
@@ -8435,7 +8435,7 @@
     <row r="616">
       <c r="A616" t="inlineStr">
         <is>
-          <t>t-965395788435046400</t>
+          <t>t-671928198360391680</t>
         </is>
       </c>
       <c r="B616" t="n">
@@ -8448,33 +8448,33 @@
     <row r="617">
       <c r="A617" t="inlineStr">
         <is>
-          <t>t-527780384159703040</t>
+          <t>t-672328618379362304</t>
         </is>
       </c>
       <c r="B617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C617" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" t="inlineStr">
         <is>
-          <t>t-533912579676975104</t>
+          <t>t-673050773710839808</t>
         </is>
       </c>
       <c r="B618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C618" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" t="inlineStr">
         <is>
-          <t>t-536372518622212096</t>
+          <t>t-674612681832140800</t>
         </is>
       </c>
       <c r="B619" t="n">
@@ -8487,11 +8487,11 @@
     <row r="620">
       <c r="A620" t="inlineStr">
         <is>
-          <t>t-536830333530804225</t>
+          <t>t-764804167068024832</t>
         </is>
       </c>
       <c r="B620" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C620" t="n">
         <v>1</v>
@@ -8500,7 +8500,7 @@
     <row r="621">
       <c r="A621" t="inlineStr">
         <is>
-          <t>t-536843974086897664</t>
+          <t>t-794478910901624834</t>
         </is>
       </c>
       <c r="B621" t="n">
@@ -8513,7 +8513,7 @@
     <row r="622">
       <c r="A622" t="inlineStr">
         <is>
-          <t>t-571610231173599232</t>
+          <t>t-794502218061750272</t>
         </is>
       </c>
       <c r="B622" t="n">
@@ -8526,11 +8526,11 @@
     <row r="623">
       <c r="A623" t="inlineStr">
         <is>
-          <t>t-659219094017708032</t>
+          <t>t-796319752176009216</t>
         </is>
       </c>
       <c r="B623" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C623" t="n">
         <v>0</v>
@@ -8539,7 +8539,7 @@
     <row r="624">
       <c r="A624" t="inlineStr">
         <is>
-          <t>t-671487099355426816</t>
+          <t>t-796346157156864001</t>
         </is>
       </c>
       <c r="B624" t="n">
@@ -8552,46 +8552,46 @@
     <row r="625">
       <c r="A625" t="inlineStr">
         <is>
-          <t>t-671928198360391680</t>
+          <t>t-796369433241403393</t>
         </is>
       </c>
       <c r="B625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C625" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" t="inlineStr">
         <is>
-          <t>t-672328618379362304</t>
+          <t>t-796693709639168001</t>
         </is>
       </c>
       <c r="B626" t="n">
         <v>1</v>
       </c>
       <c r="C626" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" t="inlineStr">
         <is>
-          <t>t-673050773710839808</t>
+          <t>t-797722245741223936</t>
         </is>
       </c>
       <c r="B627" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C627" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" t="inlineStr">
         <is>
-          <t>t-732021013433724928</t>
+          <t>t-797729987348418561</t>
         </is>
       </c>
       <c r="B628" t="n">
@@ -8604,11 +8604,11 @@
     <row r="629">
       <c r="A629" t="inlineStr">
         <is>
-          <t>t-732494989838540800</t>
+          <t>t-797771440128860162</t>
         </is>
       </c>
       <c r="B629" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C629" t="n">
         <v>1</v>
@@ -8617,7 +8617,7 @@
     <row r="630">
       <c r="A630" t="inlineStr">
         <is>
-          <t>t-732496065941798912</t>
+          <t>t-797771478930366464</t>
         </is>
       </c>
       <c r="B630" t="n">
@@ -8630,11 +8630,11 @@
     <row r="631">
       <c r="A631" t="inlineStr">
         <is>
-          <t>t-764804167068024832</t>
+          <t>t-797792110535528448</t>
         </is>
       </c>
       <c r="B631" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C631" t="n">
         <v>1</v>
@@ -8643,7 +8643,7 @@
     <row r="632">
       <c r="A632" t="inlineStr">
         <is>
-          <t>t-792955986956824576</t>
+          <t>t-798105876364029953</t>
         </is>
       </c>
       <c r="B632" t="n">
@@ -8656,7 +8656,7 @@
     <row r="633">
       <c r="A633" t="inlineStr">
         <is>
-          <t>t-793029205319491584</t>
+          <t>t-799522784040849408</t>
         </is>
       </c>
       <c r="B633" t="n">
@@ -8669,7 +8669,7 @@
     <row r="634">
       <c r="A634" t="inlineStr">
         <is>
-          <t>t-793055195232018432</t>
+          <t>t-834984646416842753</t>
         </is>
       </c>
       <c r="B634" t="n">
@@ -8682,7 +8682,7 @@
     <row r="635">
       <c r="A635" t="inlineStr">
         <is>
-          <t>t-828522614863785984</t>
+          <t>t-834986851718946816</t>
         </is>
       </c>
       <c r="B635" t="n">
@@ -8695,7 +8695,7 @@
     <row r="636">
       <c r="A636" t="inlineStr">
         <is>
-          <t>t-928491239808233473</t>
+          <t>t-835051963096121344</t>
         </is>
       </c>
       <c r="B636" t="n">
@@ -8708,7 +8708,7 @@
     <row r="637">
       <c r="A637" t="inlineStr">
         <is>
-          <t>t-928882270554877953</t>
+          <t>t-863988808966053888</t>
         </is>
       </c>
       <c r="B637" t="n">
@@ -8721,7 +8721,7 @@
     <row r="638">
       <c r="A638" t="inlineStr">
         <is>
-          <t>t-928900503953588224</t>
+          <t>t-880004628884013057</t>
         </is>
       </c>
       <c r="B638" t="n">
@@ -8734,7 +8734,7 @@
     <row r="639">
       <c r="A639" t="inlineStr">
         <is>
-          <t>t-928967839649804289</t>
+          <t>t-918078962173075457</t>
         </is>
       </c>
       <c r="B639" t="n">
@@ -8747,7 +8747,7 @@
     <row r="640">
       <c r="A640" t="inlineStr">
         <is>
-          <t>t-929323628226686976</t>
+          <t>t-918257100547014658</t>
         </is>
       </c>
       <c r="B640" t="n">
@@ -8760,11 +8760,11 @@
     <row r="641">
       <c r="A641" t="inlineStr">
         <is>
-          <t>t-1036192189947281408</t>
+          <t>t-976030387188137984</t>
         </is>
       </c>
       <c r="B641" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C641" t="n">
         <v>1</v>
@@ -8773,20 +8773,20 @@
     <row r="642">
       <c r="A642" t="inlineStr">
         <is>
-          <t>t-508042249457139712</t>
+          <t>t-976030855033319425</t>
         </is>
       </c>
       <c r="B642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" t="inlineStr">
         <is>
-          <t>t-563978477183840256</t>
+          <t>t-976037405776990208</t>
         </is>
       </c>
       <c r="B643" t="n">
@@ -8799,37 +8799,37 @@
     <row r="644">
       <c r="A644" t="inlineStr">
         <is>
-          <t>t-586217765666623488</t>
+          <t>t-508042249457139712</t>
         </is>
       </c>
       <c r="B644" t="n">
         <v>0</v>
       </c>
       <c r="C644" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" t="inlineStr">
         <is>
-          <t>t-783478326421704704</t>
+          <t>t-578162074741661696</t>
         </is>
       </c>
       <c r="B645" t="n">
         <v>1</v>
       </c>
       <c r="C645" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" t="inlineStr">
         <is>
-          <t>t-528210205746532352</t>
+          <t>t-586217765666623488</t>
         </is>
       </c>
       <c r="B646" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C646" t="n">
         <v>1</v>
@@ -8838,11 +8838,11 @@
     <row r="647">
       <c r="A647" t="inlineStr">
         <is>
-          <t>t-528777132097298433</t>
+          <t>t-518708677113438208</t>
         </is>
       </c>
       <c r="B647" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C647" t="n">
         <v>1</v>
@@ -8851,20 +8851,20 @@
     <row r="648">
       <c r="A648" t="inlineStr">
         <is>
-          <t>t-528826156708278272</t>
+          <t>t-528210205746532352</t>
         </is>
       </c>
       <c r="B648" t="n">
         <v>1</v>
       </c>
       <c r="C648" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" t="inlineStr">
         <is>
-          <t>t-528877062564503552</t>
+          <t>t-528777132097298433</t>
         </is>
       </c>
       <c r="B649" t="n">
@@ -8877,7 +8877,7 @@
     <row r="650">
       <c r="A650" t="inlineStr">
         <is>
-          <t>t-529071458085900288</t>
+          <t>t-528826156708278272</t>
         </is>
       </c>
       <c r="B650" t="n">
@@ -8890,7 +8890,7 @@
     <row r="651">
       <c r="A651" t="inlineStr">
         <is>
-          <t>t-529085805034094593</t>
+          <t>t-528877062564503552</t>
         </is>
       </c>
       <c r="B651" t="n">
@@ -8903,7 +8903,7 @@
     <row r="652">
       <c r="A652" t="inlineStr">
         <is>
-          <t>t-529166911674671104</t>
+          <t>t-529071458085900288</t>
         </is>
       </c>
       <c r="B652" t="n">
@@ -8916,7 +8916,7 @@
     <row r="653">
       <c r="A653" t="inlineStr">
         <is>
-          <t>t-529236028171620353</t>
+          <t>t-529085805034094593</t>
         </is>
       </c>
       <c r="B653" t="n">
@@ -8929,7 +8929,7 @@
     <row r="654">
       <c r="A654" t="inlineStr">
         <is>
-          <t>t-529319778377166848</t>
+          <t>t-529166911674671104</t>
         </is>
       </c>
       <c r="B654" t="n">
@@ -8942,7 +8942,7 @@
     <row r="655">
       <c r="A655" t="inlineStr">
         <is>
-          <t>t-530135697877766146</t>
+          <t>t-529236028171620353</t>
         </is>
       </c>
       <c r="B655" t="n">
@@ -8955,7 +8955,7 @@
     <row r="656">
       <c r="A656" t="inlineStr">
         <is>
-          <t>t-530218899833241600</t>
+          <t>t-529319778377166848</t>
         </is>
       </c>
       <c r="B656" t="n">
@@ -8968,11 +8968,11 @@
     <row r="657">
       <c r="A657" t="inlineStr">
         <is>
-          <t>t-550981789649735680</t>
+          <t>t-530135697877766146</t>
         </is>
       </c>
       <c r="B657" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C657" t="n">
         <v>0</v>
@@ -8981,7 +8981,7 @@
     <row r="658">
       <c r="A658" t="inlineStr">
         <is>
-          <t>t-592295516517502976</t>
+          <t>t-530218899833241600</t>
         </is>
       </c>
       <c r="B658" t="n">
@@ -8994,20 +8994,20 @@
     <row r="659">
       <c r="A659" t="inlineStr">
         <is>
-          <t>t-676067082081976320</t>
+          <t>t-546954418067738625</t>
         </is>
       </c>
       <c r="B659" t="n">
         <v>1</v>
       </c>
       <c r="C659" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" t="inlineStr">
         <is>
-          <t>t-678547534269177856</t>
+          <t>t-547052080943214593</t>
         </is>
       </c>
       <c r="B660" t="n">
@@ -9020,7 +9020,7 @@
     <row r="661">
       <c r="A661" t="inlineStr">
         <is>
-          <t>t-689784474884648961</t>
+          <t>t-547052404026249217</t>
         </is>
       </c>
       <c r="B661" t="n">
@@ -9033,24 +9033,24 @@
     <row r="662">
       <c r="A662" t="inlineStr">
         <is>
-          <t>t-801312317355003904</t>
+          <t>t-547288951820521472</t>
         </is>
       </c>
       <c r="B662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C662" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" t="inlineStr">
         <is>
-          <t>t-1028122158990381056</t>
+          <t>t-547333815882887168</t>
         </is>
       </c>
       <c r="B663" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C663" t="n">
         <v>1</v>
@@ -9059,7 +9059,7 @@
     <row r="664">
       <c r="A664" t="inlineStr">
         <is>
-          <t>t-551339874838908928</t>
+          <t>t-547368132457689088</t>
         </is>
       </c>
       <c r="B664" t="n">
@@ -9072,11 +9072,11 @@
     <row r="665">
       <c r="A665" t="inlineStr">
         <is>
-          <t>t-780295387017949184</t>
+          <t>t-547431547935412224</t>
         </is>
       </c>
       <c r="B665" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C665" t="n">
         <v>1</v>
@@ -9085,7 +9085,7 @@
     <row r="666">
       <c r="A666" t="inlineStr">
         <is>
-          <t>t-694164443224154112</t>
+          <t>t-547610562692009985</t>
         </is>
       </c>
       <c r="B666" t="n">
@@ -9098,20 +9098,20 @@
     <row r="667">
       <c r="A667" t="inlineStr">
         <is>
-          <t>t-694343886626394113</t>
+          <t>t-547694551637700608</t>
         </is>
       </c>
       <c r="B667" t="n">
         <v>1</v>
       </c>
       <c r="C667" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" t="inlineStr">
         <is>
-          <t>t-694445663426207744</t>
+          <t>t-689784474884648961</t>
         </is>
       </c>
       <c r="B668" t="n">
@@ -9124,24 +9124,24 @@
     <row r="669">
       <c r="A669" t="inlineStr">
         <is>
-          <t>t-740483903366926337</t>
+          <t>t-846329507103436800</t>
         </is>
       </c>
       <c r="B669" t="n">
         <v>1</v>
       </c>
       <c r="C669" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" t="inlineStr">
         <is>
-          <t>t-830684745323327488</t>
+          <t>t-1032843605826621440</t>
         </is>
       </c>
       <c r="B670" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C670" t="n">
         <v>1</v>
@@ -9150,11 +9150,11 @@
     <row r="671">
       <c r="A671" t="inlineStr">
         <is>
-          <t>t-832183739346063361</t>
+          <t>t-521700184376770560</t>
         </is>
       </c>
       <c r="B671" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C671" t="n">
         <v>1</v>
@@ -9163,37 +9163,37 @@
     <row r="672">
       <c r="A672" t="inlineStr">
         <is>
-          <t>t-545394272619331584</t>
+          <t>t-971295308981383168</t>
         </is>
       </c>
       <c r="B672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" t="inlineStr">
         <is>
-          <t>t-558428892898131968</t>
+          <t>t-525880451999617025</t>
         </is>
       </c>
       <c r="B673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C673" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" t="inlineStr">
         <is>
-          <t>t-558596887519850496</t>
+          <t>t-527311291191263232</t>
         </is>
       </c>
       <c r="B674" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C674" t="n">
         <v>1</v>
@@ -9202,20 +9202,20 @@
     <row r="675">
       <c r="A675" t="inlineStr">
         <is>
-          <t>t-689731867570900992</t>
+          <t>t-565428032685740033</t>
         </is>
       </c>
       <c r="B675" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C675" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" t="inlineStr">
         <is>
-          <t>t-797741772730306560</t>
+          <t>t-969977636670918656</t>
         </is>
       </c>
       <c r="B676" t="n">
@@ -9228,20 +9228,20 @@
     <row r="677">
       <c r="A677" t="inlineStr">
         <is>
-          <t>t-797789959478353920</t>
+          <t>t-532101195737735168</t>
         </is>
       </c>
       <c r="B677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C677" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" t="inlineStr">
         <is>
-          <t>t-797794521597644800</t>
+          <t>t-532807839664730113</t>
         </is>
       </c>
       <c r="B678" t="n">
@@ -9254,11 +9254,11 @@
     <row r="679">
       <c r="A679" t="inlineStr">
         <is>
-          <t>t-817285829861093377</t>
+          <t>t-558428892898131968</t>
         </is>
       </c>
       <c r="B679" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C679" t="n">
         <v>1</v>
@@ -9267,7 +9267,7 @@
     <row r="680">
       <c r="A680" t="inlineStr">
         <is>
-          <t>t-852718859765202945</t>
+          <t>t-558596887519850496</t>
         </is>
       </c>
       <c r="B680" t="n">
@@ -9280,11 +9280,11 @@
     <row r="681">
       <c r="A681" t="inlineStr">
         <is>
-          <t>t-852739972473868290</t>
+          <t>t-673010347008110593</t>
         </is>
       </c>
       <c r="B681" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C681" t="n">
         <v>1</v>
@@ -9293,24 +9293,24 @@
     <row r="682">
       <c r="A682" t="inlineStr">
         <is>
-          <t>t-922457591313137664</t>
+          <t>t-674974370180239360</t>
         </is>
       </c>
       <c r="B682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C682" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" t="inlineStr">
         <is>
-          <t>t-922793297873010689</t>
+          <t>t-685036854010339328</t>
         </is>
       </c>
       <c r="B683" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C683" t="n">
         <v>1</v>
@@ -9371,7 +9371,7 @@
     <row r="688">
       <c r="A688" t="inlineStr">
         <is>
-          <t>t-681630649879543808</t>
+          <t>t-924811540154540032</t>
         </is>
       </c>
       <c r="B688" t="n">
@@ -9384,7 +9384,7 @@
     <row r="689">
       <c r="A689" t="inlineStr">
         <is>
-          <t>t-803451448700780544</t>
+          <t>t-924943312192073729</t>
         </is>
       </c>
       <c r="B689" t="n">
@@ -9397,7 +9397,7 @@
     <row r="690">
       <c r="A690" t="inlineStr">
         <is>
-          <t>t-803454039333556224</t>
+          <t>t-558414856756293634</t>
         </is>
       </c>
       <c r="B690" t="n">
@@ -9410,37 +9410,37 @@
     <row r="691">
       <c r="A691" t="inlineStr">
         <is>
-          <t>t-803455995494027264</t>
+          <t>t-558416982677422081</t>
         </is>
       </c>
       <c r="B691" t="n">
         <v>1</v>
       </c>
       <c r="C691" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" t="inlineStr">
         <is>
-          <t>t-803466221962215424</t>
+          <t>t-779194196724887553</t>
         </is>
       </c>
       <c r="B692" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C692" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" t="inlineStr">
         <is>
-          <t>t-803470959600467968</t>
+          <t>t-787902147698450432</t>
         </is>
       </c>
       <c r="B693" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C693" t="n">
         <v>1</v>
@@ -9449,11 +9449,11 @@
     <row r="694">
       <c r="A694" t="inlineStr">
         <is>
-          <t>t-822808230711721984</t>
+          <t>t-787981561949921280</t>
         </is>
       </c>
       <c r="B694" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C694" t="n">
         <v>1</v>
@@ -9462,7 +9462,7 @@
     <row r="695">
       <c r="A695" t="inlineStr">
         <is>
-          <t>t-924811540154540032</t>
+          <t>t-666482399069343745</t>
         </is>
       </c>
       <c r="B695" t="n">
@@ -9475,7 +9475,7 @@
     <row r="696">
       <c r="A696" t="inlineStr">
         <is>
-          <t>t-924943312192073729</t>
+          <t>t-692022677649797120</t>
         </is>
       </c>
       <c r="B696" t="n">
@@ -9488,7 +9488,7 @@
     <row r="697">
       <c r="A697" t="inlineStr">
         <is>
-          <t>t-558414856756293634</t>
+          <t>t-547361002212188160</t>
         </is>
       </c>
       <c r="B697" t="n">
@@ -9501,24 +9501,24 @@
     <row r="698">
       <c r="A698" t="inlineStr">
         <is>
-          <t>t-558416982677422081</t>
+          <t>t-547937617547771905</t>
         </is>
       </c>
       <c r="B698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C698" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" t="inlineStr">
         <is>
-          <t>t-636337860757483520</t>
+          <t>t-597692277847298049</t>
         </is>
       </c>
       <c r="B699" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C699" t="n">
         <v>1</v>
@@ -9527,20 +9527,20 @@
     <row r="700">
       <c r="A700" t="inlineStr">
         <is>
-          <t>t-776553403992252416</t>
+          <t>t-812248571802025984</t>
         </is>
       </c>
       <c r="B700" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C700" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" t="inlineStr">
         <is>
-          <t>t-776953291594866688</t>
+          <t>t-966644863226732544</t>
         </is>
       </c>
       <c r="B701" t="n">
@@ -9553,7 +9553,7 @@
     <row r="702">
       <c r="A702" t="inlineStr">
         <is>
-          <t>t-776996787567464448</t>
+          <t>t-966649635170238465</t>
         </is>
       </c>
       <c r="B702" t="n">
@@ -9566,7 +9566,7 @@
     <row r="703">
       <c r="A703" t="inlineStr">
         <is>
-          <t>t-777018247778631680</t>
+          <t>t-550867696435200000</t>
         </is>
       </c>
       <c r="B703" t="n">
@@ -9579,7 +9579,7 @@
     <row r="704">
       <c r="A704" t="inlineStr">
         <is>
-          <t>t-777139839556648960</t>
+          <t>t-550870336418234368</t>
         </is>
       </c>
       <c r="B704" t="n">
@@ -9592,7 +9592,7 @@
     <row r="705">
       <c r="A705" t="inlineStr">
         <is>
-          <t>t-777163982893223936</t>
+          <t>t-550963305326862336</t>
         </is>
       </c>
       <c r="B705" t="n">
@@ -9605,20 +9605,20 @@
     <row r="706">
       <c r="A706" t="inlineStr">
         <is>
-          <t>t-964122358905823232</t>
+          <t>t-551099005388599297</t>
         </is>
       </c>
       <c r="B706" t="n">
         <v>1</v>
       </c>
       <c r="C706" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" t="inlineStr">
         <is>
-          <t>t-987943018454962177</t>
+          <t>t-551184362054500352</t>
         </is>
       </c>
       <c r="B707" t="n">
@@ -9631,20 +9631,20 @@
     <row r="708">
       <c r="A708" t="inlineStr">
         <is>
-          <t>t-544801968703557632</t>
+          <t>t-801684041787273216</t>
         </is>
       </c>
       <c r="B708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C708" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" t="inlineStr">
         <is>
-          <t>t-809685070428524546</t>
+          <t>t-555130566706622465</t>
         </is>
       </c>
       <c r="B709" t="n">
@@ -9657,7 +9657,7 @@
     <row r="710">
       <c r="A710" t="inlineStr">
         <is>
-          <t>t-984973285124222976</t>
+          <t>t-941661763132579840</t>
         </is>
       </c>
       <c r="B710" t="n">
@@ -9670,20 +9670,20 @@
     <row r="711">
       <c r="A711" t="inlineStr">
         <is>
-          <t>t-555130566706622465</t>
+          <t>t-697434910303264773</t>
         </is>
       </c>
       <c r="B711" t="n">
         <v>1</v>
       </c>
       <c r="C711" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" t="inlineStr">
         <is>
-          <t>t-579496758595584000</t>
+          <t>t-826783220507168768</t>
         </is>
       </c>
       <c r="B712" t="n">
@@ -9696,11 +9696,11 @@
     <row r="713">
       <c r="A713" t="inlineStr">
         <is>
-          <t>t-658189046523412480</t>
+          <t>t-935764445632061440</t>
         </is>
       </c>
       <c r="B713" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C713" t="n">
         <v>1</v>
@@ -9709,33 +9709,33 @@
     <row r="714">
       <c r="A714" t="inlineStr">
         <is>
-          <t>t-561946682707812352</t>
+          <t>t-950566545595551745</t>
         </is>
       </c>
       <c r="B714" t="n">
         <v>0</v>
       </c>
       <c r="C714" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" t="inlineStr">
         <is>
-          <t>t-895185499131961344</t>
+          <t>t-1016952321333497856</t>
         </is>
       </c>
       <c r="B715" t="n">
         <v>0</v>
       </c>
       <c r="C715" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" t="inlineStr">
         <is>
-          <t>t-905053100729356288</t>
+          <t>t-564347457773920257</t>
         </is>
       </c>
       <c r="B716" t="n">
@@ -9748,7 +9748,7 @@
     <row r="717">
       <c r="A717" t="inlineStr">
         <is>
-          <t>t-932461262268661760</t>
+          <t>t-701328466483027968</t>
         </is>
       </c>
       <c r="B717" t="n">
@@ -9761,7 +9761,7 @@
     <row r="718">
       <c r="A718" t="inlineStr">
         <is>
-          <t>t-932590015711993858</t>
+          <t>t-775600763481436160</t>
         </is>
       </c>
       <c r="B718" t="n">
@@ -9774,11 +9774,11 @@
     <row r="719">
       <c r="A719" t="inlineStr">
         <is>
-          <t>t-932596112241786880</t>
+          <t>t-998840776758120448</t>
         </is>
       </c>
       <c r="B719" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C719" t="n">
         <v>1</v>
@@ -9787,7 +9787,7 @@
     <row r="720">
       <c r="A720" t="inlineStr">
         <is>
-          <t>t-932690981908074496</t>
+          <t>t-579242361768677376</t>
         </is>
       </c>
       <c r="B720" t="n">
@@ -9800,7 +9800,7 @@
     <row r="721">
       <c r="A721" t="inlineStr">
         <is>
-          <t>t-932881287005835264</t>
+          <t>t-753509017096364033</t>
         </is>
       </c>
       <c r="B721" t="n">
@@ -9813,7 +9813,7 @@
     <row r="722">
       <c r="A722" t="inlineStr">
         <is>
-          <t>t-1004628011856089090</t>
+          <t>t-568062001399746560</t>
         </is>
       </c>
       <c r="B722" t="n">
@@ -9826,7 +9826,7 @@
     <row r="723">
       <c r="A723" t="inlineStr">
         <is>
-          <t>t-566151747232489472</t>
+          <t>t-610619808913076224</t>
         </is>
       </c>
       <c r="B723" t="n">
@@ -9839,7 +9839,7 @@
     <row r="724">
       <c r="A724" t="inlineStr">
         <is>
-          <t>t-729241413867556864</t>
+          <t>t-675601382867537920</t>
         </is>
       </c>
       <c r="B724" t="n">
@@ -9852,7 +9852,7 @@
     <row r="725">
       <c r="A725" t="inlineStr">
         <is>
-          <t>t-845628167855357953</t>
+          <t>t-676436379425894400</t>
         </is>
       </c>
       <c r="B725" t="n">
@@ -9865,11 +9865,11 @@
     <row r="726">
       <c r="A726" t="inlineStr">
         <is>
-          <t>t-765452831297970176</t>
+          <t>t-683203716623646720</t>
         </is>
       </c>
       <c r="B726" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C726" t="n">
         <v>1</v>
@@ -9878,11 +9878,11 @@
     <row r="727">
       <c r="A727" t="inlineStr">
         <is>
-          <t>t-639809419102937088</t>
+          <t>t-685863458978443264</t>
         </is>
       </c>
       <c r="B727" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C727" t="n">
         <v>0</v>
@@ -9891,7 +9891,7 @@
     <row r="728">
       <c r="A728" t="inlineStr">
         <is>
-          <t>t-1062157078439968770</t>
+          <t>t-745577469814538240</t>
         </is>
       </c>
       <c r="B728" t="n">
@@ -9904,7 +9904,7 @@
     <row r="729">
       <c r="A729" t="inlineStr">
         <is>
-          <t>t-745577469814538240</t>
+          <t>t-780951872647475200</t>
         </is>
       </c>
       <c r="B729" t="n">
@@ -9917,7 +9917,7 @@
     <row r="730">
       <c r="A730" t="inlineStr">
         <is>
-          <t>t-964014223184375808</t>
+          <t>t-946177924222222336</t>
         </is>
       </c>
       <c r="B730" t="n">
@@ -9930,7 +9930,7 @@
     <row r="731">
       <c r="A731" t="inlineStr">
         <is>
-          <t>t-816256005461987328</t>
+          <t>t-833862725059031044</t>
         </is>
       </c>
       <c r="B731" t="n">
